--- a/capiq_data/in_process_data/IQ27023.xlsx
+++ b/capiq_data/in_process_data/IQ27023.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A22B22-264C-4BBC-BA59-1E6CBAF17A99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07570B38-5EBF-4C84-A589-8F9AAE844866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"22cf2073-4453-4131-a9b0-6a5d8737f3c0"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4f128e6c-b889-441b-a714-869fc63aa647"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>37.896000000000001</v>
+        <v>9.3491999999999997</v>
       </c>
       <c r="D2">
-        <v>207.38</v>
+        <v>56.638199999999998</v>
       </c>
       <c r="E2">
-        <v>136.97200000000001</v>
+        <v>68.507800000000003</v>
       </c>
       <c r="F2">
-        <v>85.905000000000001</v>
+        <v>22.515000000000001</v>
       </c>
       <c r="G2">
-        <v>392.35300000000001</v>
+        <v>103.9534</v>
       </c>
       <c r="H2">
-        <v>1188.4110000000001</v>
+        <v>292.69709999999998</v>
       </c>
       <c r="I2">
-        <v>101.428</v>
+        <v>24.633199999999999</v>
       </c>
       <c r="J2">
-        <v>350.47399999999999</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="K2">
-        <v>50.655999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>160.893</v>
+        <v>46.963000000000001</v>
       </c>
       <c r="O2">
-        <v>547.077</v>
+        <v>51.83</v>
       </c>
       <c r="P2">
-        <v>401.13</v>
+        <v>8.3734999999999999</v>
       </c>
       <c r="Q2">
-        <v>-56.515999999999998</v>
+        <v>-13.155200000000001</v>
       </c>
       <c r="R2">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>641.33399999999995</v>
+        <v>240.86709999999999</v>
       </c>
       <c r="U2">
-        <v>203.95400000000001</v>
+        <v>2.5215999999999998</v>
       </c>
       <c r="V2">
-        <v>15.785</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-61.113</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>37.893000000000001</v>
+        <v>9.3491999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>50.134999999999998</v>
+        <v>11.485200000000001</v>
       </c>
       <c r="D3">
-        <v>236.755</v>
+        <v>71.480599999999995</v>
       </c>
       <c r="E3">
-        <v>117.53400000000001</v>
+        <v>62.622999999999998</v>
       </c>
       <c r="F3">
-        <v>108.907</v>
+        <v>28.271000000000001</v>
       </c>
       <c r="G3">
-        <v>353.36599999999999</v>
+        <v>109.30329999999999</v>
       </c>
       <c r="H3">
-        <v>1191.3119999999999</v>
+        <v>310.0102</v>
       </c>
       <c r="I3">
-        <v>104.229</v>
+        <v>27.791499999999999</v>
       </c>
       <c r="J3">
-        <v>338.404</v>
+        <v>0.4869</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>171.40600000000001</v>
+        <v>52.451000000000001</v>
       </c>
       <c r="O3">
-        <v>544.97</v>
+        <v>57.2211</v>
       </c>
       <c r="P3">
-        <v>389.08199999999999</v>
+        <v>8.2847000000000008</v>
       </c>
       <c r="Q3">
-        <v>-11.805999999999999</v>
+        <v>15.5815</v>
       </c>
       <c r="R3">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>646.34199999999998</v>
+        <v>252.78909999999999</v>
       </c>
       <c r="U3">
-        <v>192.148</v>
+        <v>18.103100000000001</v>
       </c>
       <c r="V3">
-        <v>107.327</v>
+        <v>31.000900000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-72.046000000000006</v>
+        <v>1.0345</v>
       </c>
       <c r="Y3">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>50.136000000000003</v>
+        <v>11.485200000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>40.521000000000001</v>
+        <v>12.9314</v>
       </c>
       <c r="D4">
-        <v>215.44200000000001</v>
+        <v>68.631100000000004</v>
       </c>
       <c r="E4">
-        <v>50.447000000000003</v>
+        <v>17.980499999999999</v>
       </c>
       <c r="F4">
-        <v>110.286</v>
+        <v>29.267800000000001</v>
       </c>
       <c r="G4">
-        <v>241.86799999999999</v>
+        <v>107.86409999999999</v>
       </c>
       <c r="H4">
-        <v>1084.4359999999999</v>
+        <v>315.06420000000003</v>
       </c>
       <c r="I4">
-        <v>54.555</v>
+        <v>18.398099999999999</v>
       </c>
       <c r="J4">
-        <v>325.38600000000002</v>
+        <v>0.40920000000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>166.626</v>
+        <v>44.090299999999999</v>
       </c>
       <c r="O4">
-        <v>529.26400000000001</v>
+        <v>45.911799999999999</v>
       </c>
       <c r="P4">
-        <v>375.75599999999997</v>
+        <v>0.71209999999999996</v>
       </c>
       <c r="Q4">
-        <v>-118.139</v>
+        <v>-2.8578999999999999</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="S4">
-        <v>2825</v>
+        <v>2078</v>
       </c>
       <c r="T4">
-        <v>555.17200000000003</v>
+        <v>269.1524</v>
       </c>
       <c r="U4">
-        <v>74.009</v>
+        <v>15.245200000000001</v>
       </c>
       <c r="V4">
-        <v>42.281999999999996</v>
+        <v>12.540100000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-145.99</v>
+        <v>-7.0297999999999998</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>40.521000000000001</v>
+        <v>12.9314</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>41.149000000000001</v>
+        <v>12.7582</v>
       </c>
       <c r="D5">
-        <v>225.626</v>
+        <v>72.282499999999999</v>
       </c>
       <c r="E5">
-        <v>136.28399999999999</v>
+        <v>67.405000000000001</v>
       </c>
       <c r="F5">
-        <v>95.924999999999997</v>
+        <v>29.050999999999998</v>
       </c>
       <c r="G5">
-        <v>384.27100000000002</v>
+        <v>116.072</v>
       </c>
       <c r="H5">
-        <v>1225.884</v>
+        <v>346.00040000000001</v>
       </c>
       <c r="I5">
-        <v>101.489</v>
+        <v>29.382899999999999</v>
       </c>
       <c r="J5">
-        <v>425.93700000000001</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,40 +1138,40 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-7.3700000000000002E-2</v>
       </c>
       <c r="N5">
-        <v>208.63499999999999</v>
+        <v>48.8279</v>
       </c>
       <c r="O5">
-        <v>671.03899999999999</v>
+        <v>55.104399999999998</v>
       </c>
       <c r="P5">
-        <v>501.32400000000001</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="Q5">
-        <v>138.66800000000001</v>
+        <v>-1.8964000000000001</v>
       </c>
       <c r="R5">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>554.84500000000003</v>
+        <v>290.89600000000002</v>
       </c>
       <c r="U5">
-        <v>212.67699999999999</v>
+        <v>13.348800000000001</v>
       </c>
       <c r="V5">
-        <v>64.186999999999998</v>
+        <v>17.174900000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>82.265000000000001</v>
+        <v>0.27489999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>41.149000000000001</v>
+        <v>12.7582</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>40.603000000000002</v>
+        <v>12.4955</v>
       </c>
       <c r="D6">
-        <v>227.904</v>
+        <v>71.382300000000001</v>
       </c>
       <c r="E6">
-        <v>151.90299999999999</v>
+        <v>76.980099999999993</v>
       </c>
       <c r="F6">
-        <v>99.695999999999998</v>
+        <v>28.249700000000001</v>
       </c>
       <c r="G6">
-        <v>328.21199999999999</v>
+        <v>234.7243</v>
       </c>
       <c r="H6">
-        <v>1139.6579999999999</v>
+        <v>484.7559</v>
       </c>
       <c r="I6">
-        <v>100.441</v>
+        <v>28.7058</v>
       </c>
       <c r="J6">
-        <v>410.33600000000001</v>
+        <v>0.24970000000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>186.18199999999999</v>
+        <v>49.488</v>
       </c>
       <c r="O6">
-        <v>632.28599999999994</v>
+        <v>51.157200000000003</v>
       </c>
       <c r="P6">
-        <v>485.51600000000002</v>
+        <v>0.56320000000000003</v>
       </c>
       <c r="Q6">
-        <v>-85.037000000000006</v>
+        <v>110.092</v>
       </c>
       <c r="R6">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>507.37200000000001</v>
+        <v>433.59870000000001</v>
       </c>
       <c r="U6">
-        <v>127.64</v>
+        <v>123.4408</v>
       </c>
       <c r="V6">
-        <v>26.161000000000001</v>
+        <v>2.5562</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-103.265</v>
+        <v>127.83199999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>40.603000000000002</v>
+        <v>12.495200000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>55.470999999999997</v>
+        <v>16.600300000000001</v>
       </c>
       <c r="D7">
-        <v>244.10499999999999</v>
+        <v>90.158100000000005</v>
       </c>
       <c r="E7">
-        <v>129.33500000000001</v>
+        <v>64.033100000000005</v>
       </c>
       <c r="F7">
-        <v>115.26900000000001</v>
+        <v>37.144399999999997</v>
       </c>
       <c r="G7">
-        <v>383.375</v>
+        <v>238.75700000000001</v>
       </c>
       <c r="H7">
-        <v>1204.7629999999999</v>
+        <v>509.84230000000002</v>
       </c>
       <c r="I7">
-        <v>108.592</v>
+        <v>33.988799999999998</v>
       </c>
       <c r="J7">
-        <v>390.524</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>198.77099999999999</v>
+        <v>55.570999999999998</v>
       </c>
       <c r="O7">
-        <v>626.03099999999995</v>
+        <v>57.175600000000003</v>
       </c>
       <c r="P7">
-        <v>465.95</v>
+        <v>0.4869</v>
       </c>
       <c r="Q7">
-        <v>79.494</v>
+        <v>20.58</v>
       </c>
       <c r="R7">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>578.73199999999997</v>
+        <v>452.66669999999999</v>
       </c>
       <c r="U7">
-        <v>207.13399999999999</v>
+        <v>144.02080000000001</v>
       </c>
       <c r="V7">
-        <v>106.60299999999999</v>
+        <v>43.222499999999997</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-16.425999999999998</v>
+        <v>2.3914</v>
       </c>
       <c r="Y7">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>55.470999999999997</v>
+        <v>16.6004</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>44.896000000000001</v>
+        <v>15.5352</v>
       </c>
       <c r="D8">
-        <v>226.55600000000001</v>
+        <v>82.6327</v>
       </c>
       <c r="E8">
-        <v>50.243000000000002</v>
+        <v>17.425599999999999</v>
       </c>
       <c r="F8">
-        <v>103.994</v>
+        <v>35.058199999999999</v>
       </c>
       <c r="G8">
-        <v>321.22699999999998</v>
+        <v>225.9924</v>
       </c>
       <c r="H8">
-        <v>1154</v>
+        <v>535.84760000000006</v>
       </c>
       <c r="I8">
-        <v>52.506</v>
+        <v>18.28</v>
       </c>
       <c r="J8">
-        <v>373.85</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>186.31899999999999</v>
+        <v>47.046399999999998</v>
       </c>
       <c r="O8">
-        <v>592.88300000000004</v>
+        <v>49.630600000000001</v>
       </c>
       <c r="P8">
-        <v>449.02</v>
+        <v>0.40920000000000001</v>
       </c>
       <c r="Q8">
-        <v>-67.022000000000006</v>
+        <v>-11.3308</v>
       </c>
       <c r="R8">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="S8">
-        <v>2981</v>
+        <v>2532</v>
       </c>
       <c r="T8">
-        <v>561.11699999999996</v>
+        <v>486.21699999999998</v>
       </c>
       <c r="U8">
-        <v>140.11199999999999</v>
+        <v>132.69</v>
       </c>
       <c r="V8">
-        <v>32.722000000000001</v>
+        <v>19.037600000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-77.447000000000003</v>
+        <v>-1.9350000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>44.896000000000001</v>
+        <v>15.5352</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>45.844999999999999</v>
+        <v>14.7066</v>
       </c>
       <c r="D9">
-        <v>238.86600000000001</v>
+        <v>83.494900000000001</v>
       </c>
       <c r="E9">
-        <v>149.554</v>
+        <v>66.501499999999993</v>
       </c>
       <c r="F9">
-        <v>106.175</v>
+        <v>35.616199999999999</v>
       </c>
       <c r="G9">
-        <v>327.06900000000002</v>
+        <v>226.18770000000001</v>
       </c>
       <c r="H9">
-        <v>1214.5260000000001</v>
+        <v>557.30970000000002</v>
       </c>
       <c r="I9">
-        <v>112.34699999999999</v>
+        <v>32.236199999999997</v>
       </c>
       <c r="J9">
-        <v>354.59800000000001</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,40 +1470,40 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-18.754999999999999</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="N9">
-        <v>217.215</v>
+        <v>53.835000000000001</v>
       </c>
       <c r="O9">
-        <v>605.65499999999997</v>
+        <v>56.322299999999998</v>
       </c>
       <c r="P9">
-        <v>429.77499999999998</v>
+        <v>0.33019999999999999</v>
       </c>
       <c r="Q9">
-        <v>-8.6820000000000004</v>
+        <v>-7.0109000000000004</v>
       </c>
       <c r="R9">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>608.87099999999998</v>
+        <v>500.98739999999998</v>
       </c>
       <c r="U9">
-        <v>131.43</v>
+        <v>125.67910000000001</v>
       </c>
       <c r="V9">
-        <v>75.314999999999998</v>
+        <v>20.066600000000001</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-26.57</v>
+        <v>-1.5100000000000001E-2</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>45.844999999999999</v>
+        <v>14.7066</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>39.64</v>
+        <v>13.756399999999999</v>
       </c>
       <c r="D10">
-        <v>266.185</v>
+        <v>82.7834</v>
       </c>
       <c r="E10">
-        <v>198.80500000000001</v>
+        <v>83.341899999999995</v>
       </c>
       <c r="F10">
-        <v>117.07899999999999</v>
+        <v>34.585799999999999</v>
       </c>
       <c r="G10">
-        <v>311.90499999999997</v>
+        <v>213.52189999999999</v>
       </c>
       <c r="H10">
-        <v>1253.9459999999999</v>
+        <v>571.62249999999995</v>
       </c>
       <c r="I10">
-        <v>125.4</v>
+        <v>33.506300000000003</v>
       </c>
       <c r="J10">
-        <v>336.66800000000001</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>212.81100000000001</v>
+        <v>52.792499999999997</v>
       </c>
       <c r="O10">
-        <v>586.44299999999998</v>
+        <v>55.2849</v>
       </c>
       <c r="P10">
-        <v>411.84500000000003</v>
+        <v>0.27560000000000001</v>
       </c>
       <c r="Q10">
-        <v>-81.92</v>
+        <v>-31.6753</v>
       </c>
       <c r="R10">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2256</v>
       </c>
       <c r="T10">
-        <v>667.50300000000004</v>
+        <v>516.33759999999995</v>
       </c>
       <c r="U10">
-        <v>49.51</v>
+        <v>94.003799999999998</v>
       </c>
       <c r="V10">
-        <v>-22.225000000000001</v>
+        <v>0.13819999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-2.8450000000000002</v>
+        <v>1.5133000000000001</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>39.64</v>
+        <v>13.756500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>53.235999999999997</v>
+        <v>15.422800000000001</v>
       </c>
       <c r="D11">
-        <v>277.63799999999998</v>
+        <v>93.928700000000006</v>
       </c>
       <c r="E11">
-        <v>164.155</v>
+        <v>68.079400000000007</v>
       </c>
       <c r="F11">
-        <v>121.197</v>
+        <v>38.916400000000003</v>
       </c>
       <c r="G11">
-        <v>353.16199999999998</v>
+        <v>212.1754</v>
       </c>
       <c r="H11">
-        <v>1298.682</v>
+        <v>571.57860000000005</v>
       </c>
       <c r="I11">
-        <v>129.001</v>
+        <v>35.106299999999997</v>
       </c>
       <c r="J11">
-        <v>318.33</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>218.37700000000001</v>
+        <v>53.949199999999998</v>
       </c>
       <c r="O11">
-        <v>574.28800000000001</v>
+        <v>60.1858</v>
       </c>
       <c r="P11">
-        <v>394.267</v>
+        <v>0.19220000000000001</v>
       </c>
       <c r="Q11">
-        <v>89.820999999999998</v>
+        <v>16.8935</v>
       </c>
       <c r="R11">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2778</v>
       </c>
       <c r="T11">
-        <v>724.39400000000001</v>
+        <v>511.39280000000002</v>
       </c>
       <c r="U11">
-        <v>139.33099999999999</v>
+        <v>110.8974</v>
       </c>
       <c r="V11">
-        <v>129.91300000000001</v>
+        <v>44.993200000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-14.657999999999999</v>
+        <v>-20.4529</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>53.235999999999997</v>
+        <v>15.422800000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>41.304000000000002</v>
+        <v>13.336399999999999</v>
       </c>
       <c r="D12">
-        <v>263.697</v>
+        <v>87.216099999999997</v>
       </c>
       <c r="E12">
-        <v>62.976999999999997</v>
+        <v>21.316299999999998</v>
       </c>
       <c r="F12">
-        <v>131.761</v>
+        <v>35.884799999999998</v>
       </c>
       <c r="G12">
-        <v>306.452</v>
+        <v>221.089</v>
       </c>
       <c r="H12">
-        <v>1334.481</v>
+        <v>587.10040000000004</v>
       </c>
       <c r="I12">
-        <v>70.561000000000007</v>
+        <v>17.9145</v>
       </c>
       <c r="J12">
-        <v>299.11</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16.291</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,164 +1722,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>238.559</v>
+        <v>54.183700000000002</v>
       </c>
       <c r="O12">
-        <v>572.08000000000004</v>
+        <v>61.460900000000002</v>
       </c>
       <c r="P12">
-        <v>391.44799999999998</v>
+        <v>0.1074</v>
       </c>
       <c r="Q12">
-        <v>-75.7</v>
+        <v>5.8491</v>
       </c>
       <c r="R12">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="S12">
-        <v>3875</v>
+        <v>2776</v>
       </c>
       <c r="T12">
-        <v>762.40099999999995</v>
+        <v>525.6395</v>
       </c>
       <c r="U12">
-        <v>63.631</v>
+        <v>116.74639999999999</v>
       </c>
       <c r="V12">
-        <v>16.323</v>
+        <v>13.8819</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-21.818000000000001</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>41.304000000000002</v>
+        <v>13.336399999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>41.421999999999997</v>
+        <v>15.241099999999999</v>
       </c>
       <c r="D13">
-        <v>279.88299999999998</v>
+        <v>91.4666</v>
       </c>
       <c r="E13">
-        <v>187.61500000000001</v>
+        <v>78.888599999999997</v>
       </c>
       <c r="F13">
-        <v>107.836</v>
+        <v>39.804699999999997</v>
       </c>
       <c r="G13">
-        <v>320.95499999999998</v>
+        <v>233.98390000000001</v>
       </c>
       <c r="H13">
-        <v>1397.3879999999999</v>
+        <v>598.57010000000002</v>
       </c>
       <c r="I13">
-        <v>154.84700000000001</v>
+        <v>38.826799999999999</v>
       </c>
       <c r="J13">
-        <v>283.02100000000002</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>-16.291</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>-18.75</v>
+        <v>-8.6199999999999999E-2</v>
       </c>
       <c r="N13">
-        <v>257.90699999999998</v>
+        <v>58.686599999999999</v>
       </c>
       <c r="O13">
-        <v>574.74099999999999</v>
+        <v>67.951700000000002</v>
       </c>
       <c r="P13">
-        <v>360.32600000000002</v>
+        <v>2.12E-2</v>
       </c>
       <c r="Q13">
-        <v>13.420999999999999</v>
+        <v>2.7170999999999998</v>
       </c>
       <c r="R13">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2781</v>
       </c>
       <c r="T13">
-        <v>822.64700000000005</v>
+        <v>530.61839999999995</v>
       </c>
       <c r="U13">
-        <v>77.052000000000007</v>
+        <v>119.4635</v>
       </c>
       <c r="V13">
-        <v>67.715000000000003</v>
+        <v>25.278199999999998</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-34.981000000000002</v>
+        <v>-10.6267</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>41.421999999999997</v>
+        <v>15.241099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>45.344999999999999</v>
+        <v>17.367899999999999</v>
       </c>
       <c r="D14">
-        <v>286.43400000000003</v>
+        <v>92.634900000000002</v>
       </c>
       <c r="E14">
-        <v>222.10400000000001</v>
+        <v>94.915800000000004</v>
       </c>
       <c r="F14">
-        <v>111.54600000000001</v>
+        <v>42.492699999999999</v>
       </c>
       <c r="G14">
-        <v>332.92899999999997</v>
+        <v>249.90629999999999</v>
       </c>
       <c r="H14">
-        <v>1438.4929999999999</v>
+        <v>619.41359999999997</v>
       </c>
       <c r="I14">
-        <v>140.87100000000001</v>
+        <v>39.941699999999997</v>
       </c>
       <c r="J14">
-        <v>263.68200000000002</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>17.033999999999999</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>259.65100000000001</v>
+        <v>60.625700000000002</v>
       </c>
       <c r="O14">
-        <v>557.76900000000001</v>
+        <v>69.854200000000006</v>
       </c>
       <c r="P14">
-        <v>357.74400000000003</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="Q14">
-        <v>-30.853000000000002</v>
+        <v>-0.25509999999999999</v>
       </c>
       <c r="R14">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="T14">
-        <v>880.72400000000005</v>
+        <v>549.55939999999998</v>
       </c>
       <c r="U14">
-        <v>46.198999999999998</v>
+        <v>105.5784</v>
       </c>
       <c r="V14">
-        <v>8.0760000000000005</v>
+        <v>6.2859999999999996</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>4.9800000000000004</v>
+        <v>1.0848</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="AA14">
-        <v>45.344999999999999</v>
+        <v>17.367799999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>40.877000000000002</v>
+        <v>25.161999999999999</v>
       </c>
       <c r="D15">
-        <v>309.72199999999998</v>
+        <v>116.61799999999999</v>
       </c>
       <c r="E15">
-        <v>192.61</v>
+        <v>84.391400000000004</v>
       </c>
       <c r="F15">
-        <v>132.25200000000001</v>
+        <v>58.564999999999998</v>
       </c>
       <c r="G15">
-        <v>385.75400000000002</v>
+        <v>291.95170000000002</v>
       </c>
       <c r="H15">
-        <v>1476.672</v>
+        <v>658.78949999999998</v>
       </c>
       <c r="I15">
-        <v>164.21799999999999</v>
+        <v>47.343600000000002</v>
       </c>
       <c r="J15">
-        <v>244.30600000000001</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>256.74200000000002</v>
+        <v>73.415499999999994</v>
       </c>
       <c r="O15">
-        <v>536.91099999999994</v>
+        <v>82.634299999999996</v>
       </c>
       <c r="P15">
-        <v>320.47699999999998</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="Q15">
-        <v>86.632999999999996</v>
+        <v>-2.5640000000000001</v>
       </c>
       <c r="R15">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2218</v>
       </c>
       <c r="T15">
-        <v>939.76099999999997</v>
+        <v>576.15520000000004</v>
       </c>
       <c r="U15">
-        <v>132.83199999999999</v>
+        <v>165.63910000000001</v>
       </c>
       <c r="V15">
-        <v>131.84299999999999</v>
+        <v>60.014800000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-34.606000000000002</v>
+        <v>2.1259000000000001</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-62.625</v>
       </c>
       <c r="AA15">
-        <v>40.877000000000002</v>
+        <v>24.963999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>51.042999999999999</v>
+        <v>21.449000000000002</v>
       </c>
       <c r="D16">
-        <v>287.45</v>
+        <v>100.07599999999999</v>
       </c>
       <c r="E16">
-        <v>68.585999999999999</v>
+        <v>27.908000000000001</v>
       </c>
       <c r="F16">
-        <v>142.61099999999999</v>
+        <v>23.92</v>
       </c>
       <c r="G16">
-        <v>412.291</v>
+        <v>293.11099999999999</v>
       </c>
       <c r="H16">
-        <v>1506.8040000000001</v>
+        <v>673.02300000000002</v>
       </c>
       <c r="I16">
-        <v>62.213000000000001</v>
+        <v>24.547999999999998</v>
       </c>
       <c r="J16">
-        <v>224.92699999999999</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>244.28399999999999</v>
+        <v>63.222999999999999</v>
       </c>
       <c r="O16">
-        <v>503.30500000000001</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="P16">
-        <v>304.601</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>25.835999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="R16">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="S16">
-        <v>4179</v>
+        <v>2235</v>
       </c>
       <c r="T16">
-        <v>1003.499</v>
+        <v>602.26300000000003</v>
       </c>
       <c r="U16">
-        <v>158.66800000000001</v>
+        <v>5.72</v>
       </c>
       <c r="V16">
-        <v>54.96</v>
+        <v>23.530999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-12.215999999999999</v>
+        <v>3.12</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-12.25</v>
       </c>
       <c r="AA16">
-        <v>51.042999999999999</v>
+        <v>21.449000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>52.615000000000002</v>
+        <v>22.67</v>
       </c>
       <c r="D17">
-        <v>290.38600000000002</v>
+        <v>101.68300000000001</v>
       </c>
       <c r="E17">
-        <v>204.81</v>
+        <v>90.710099999999997</v>
       </c>
       <c r="F17">
-        <v>122.30800000000001</v>
+        <v>44.182000000000002</v>
       </c>
       <c r="G17">
-        <v>457.76600000000002</v>
+        <v>323.80099999999999</v>
       </c>
       <c r="H17">
-        <v>1536.586</v>
+        <v>707.5104</v>
       </c>
       <c r="I17">
-        <v>153.79900000000001</v>
+        <v>41.915199999999999</v>
       </c>
       <c r="J17">
-        <v>205.36799999999999</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,84 +2134,84 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-18.75</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>259.69099999999997</v>
+        <v>72.621700000000004</v>
       </c>
       <c r="O17">
-        <v>499.15499999999997</v>
+        <v>82.139399999999995</v>
       </c>
       <c r="P17">
-        <v>281.53899999999999</v>
+        <v>1.46E-2</v>
       </c>
       <c r="Q17">
-        <v>39.816000000000003</v>
+        <v>-1.9039999999999999</v>
       </c>
       <c r="R17">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1037.431</v>
+        <v>625.37099999999998</v>
       </c>
       <c r="U17">
-        <v>198.48400000000001</v>
+        <v>200.04130000000001</v>
       </c>
       <c r="V17">
-        <v>83.366</v>
+        <v>29.558</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-17.579000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-23.625</v>
       </c>
       <c r="AA17">
-        <v>52.615000000000002</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>52.192999999999998</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>276.25799999999998</v>
+        <v>107.70099999999999</v>
       </c>
       <c r="E18">
-        <v>235.477</v>
+        <v>99.7059</v>
       </c>
       <c r="F18">
-        <v>114.867</v>
+        <v>47.668999999999997</v>
       </c>
       <c r="G18">
-        <v>888.42499999999995</v>
+        <v>343.03699999999998</v>
       </c>
       <c r="H18">
-        <v>1952.0709999999999</v>
+        <v>732.08989999999994</v>
       </c>
       <c r="I18">
-        <v>148.18</v>
+        <v>48.129399999999997</v>
       </c>
       <c r="J18">
-        <v>609.33600000000001</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>234.72399999999999</v>
+        <v>74.7864</v>
       </c>
       <c r="O18">
-        <v>878.83399999999995</v>
+        <v>81.963399999999993</v>
       </c>
       <c r="P18">
-        <v>685.50699999999995</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="Q18">
-        <v>391.88200000000001</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1073.2370000000001</v>
+        <v>650.12649999999996</v>
       </c>
       <c r="U18">
-        <v>590.36599999999999</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>5.5170000000000003</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>406.274</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>52.192999999999998</v>
+        <v>23.553000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>57.563000000000002</v>
+        <v>30.904</v>
       </c>
       <c r="D19">
-        <v>297.142</v>
+        <v>127.77200000000001</v>
       </c>
       <c r="E19">
-        <v>217.00299999999999</v>
+        <v>94.347999999999999</v>
       </c>
       <c r="F19">
-        <v>127.417</v>
+        <v>58.939</v>
       </c>
       <c r="G19">
-        <v>954.45899999999995</v>
+        <v>370.34300000000002</v>
       </c>
       <c r="H19">
-        <v>2002.9770000000001</v>
+        <v>770.21500000000003</v>
       </c>
       <c r="I19">
-        <v>154.255</v>
+        <v>50.420999999999999</v>
       </c>
       <c r="J19">
-        <v>600.851</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>229.44800000000001</v>
+        <v>78.983999999999995</v>
       </c>
       <c r="O19">
-        <v>867.00900000000001</v>
+        <v>88.206999999999994</v>
       </c>
       <c r="P19">
-        <v>665.77200000000005</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Q19">
-        <v>88.376000000000005</v>
+        <v>243.90299999999999</v>
       </c>
       <c r="R19">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1135.9680000000001</v>
+        <v>682.00800000000004</v>
       </c>
       <c r="U19">
-        <v>678.74199999999996</v>
+        <v>243.90299999999999</v>
       </c>
       <c r="V19">
-        <v>114.486</v>
+        <v>56.228999999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-17.552</v>
+        <v>0.05</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>207.17500000000001</v>
       </c>
       <c r="AA19">
-        <v>57.563000000000002</v>
+        <v>30.905000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>57.411999999999999</v>
+        <v>24.989000000000001</v>
       </c>
       <c r="D20">
-        <v>282.29300000000001</v>
+        <v>110.575</v>
       </c>
       <c r="E20">
-        <v>70.784999999999997</v>
+        <v>29.838000000000001</v>
       </c>
       <c r="F20">
-        <v>144.084</v>
+        <v>51.274999999999999</v>
       </c>
       <c r="G20">
-        <v>734.58199999999999</v>
+        <v>373.80700000000002</v>
       </c>
       <c r="H20">
-        <v>1798.66</v>
+        <v>793.52800000000002</v>
       </c>
       <c r="I20">
-        <v>57.517000000000003</v>
+        <v>36.384999999999998</v>
       </c>
       <c r="J20">
-        <v>591.24300000000005</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>213.126</v>
+        <v>80.111000000000004</v>
       </c>
       <c r="O20">
-        <v>834.19600000000003</v>
+        <v>84.149000000000001</v>
       </c>
       <c r="P20">
-        <v>644.91399999999999</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-222.73</v>
+        <v>8.6449999999999996</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="S20">
-        <v>4267</v>
+        <v>2421</v>
       </c>
       <c r="T20">
-        <v>964.46400000000006</v>
+        <v>709.37900000000002</v>
       </c>
       <c r="U20">
-        <v>456.012</v>
+        <v>252.548</v>
       </c>
       <c r="V20">
-        <v>61.707000000000001</v>
+        <v>32.905000000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-250.78100000000001</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>57.411999999999999</v>
+        <v>24.989000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>52.61</v>
+        <v>22.812999999999999</v>
       </c>
       <c r="D21">
-        <v>288.83800000000002</v>
+        <v>116.739</v>
       </c>
       <c r="E21">
-        <v>231.40299999999999</v>
+        <v>92.194000000000003</v>
       </c>
       <c r="F21">
-        <v>120.861</v>
+        <v>47.531999999999996</v>
       </c>
       <c r="G21">
-        <v>785.65599999999995</v>
+        <v>388.51100000000002</v>
       </c>
       <c r="H21">
-        <v>1855.7639999999999</v>
+        <v>834.56200000000001</v>
       </c>
       <c r="I21">
-        <v>147.34200000000001</v>
+        <v>56.247</v>
       </c>
       <c r="J21">
-        <v>584.50199999999995</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-18.75</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>223.92599999999999</v>
+        <v>98.311000000000007</v>
       </c>
       <c r="O21">
-        <v>839.21900000000005</v>
+        <v>99.405000000000001</v>
       </c>
       <c r="P21">
-        <v>626.923</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="Q21">
-        <v>16.904</v>
+        <v>-146.78</v>
       </c>
       <c r="R21">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1016.545</v>
+        <v>735.15700000000004</v>
       </c>
       <c r="U21">
-        <v>472.916</v>
+        <v>105.768</v>
       </c>
       <c r="V21">
-        <v>76.790999999999997</v>
+        <v>30.364999999999998</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-18.382000000000001</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-21.119</v>
+        <v>-152.72</v>
       </c>
       <c r="AA21">
-        <v>52.61</v>
+        <v>22.812999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>59.003999999999998</v>
+        <v>7.8540000000000001</v>
       </c>
       <c r="D22">
-        <v>299.70600000000002</v>
+        <v>125.099</v>
       </c>
       <c r="E22">
-        <v>281.22699999999998</v>
+        <v>123.896</v>
       </c>
       <c r="F22">
-        <v>124.614</v>
+        <v>50.575000000000003</v>
       </c>
       <c r="G22">
-        <v>506.858</v>
+        <v>381.93200000000002</v>
       </c>
       <c r="H22">
-        <v>1604.364</v>
+        <v>828.36800000000005</v>
       </c>
       <c r="I22">
-        <v>147.839</v>
+        <v>58.308</v>
       </c>
       <c r="J22">
-        <v>576.50099999999998</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>265.11700000000002</v>
+        <v>89.578999999999994</v>
       </c>
       <c r="O22">
-        <v>872.96400000000006</v>
+        <v>90.751999999999995</v>
       </c>
       <c r="P22">
-        <v>675.67200000000003</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q22">
-        <v>-331.5</v>
+        <v>-8.94</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>731.4</v>
+        <v>737.61599999999999</v>
       </c>
       <c r="U22">
-        <v>141.416</v>
+        <v>96.828000000000003</v>
       </c>
       <c r="V22">
-        <v>6.53</v>
+        <v>-4.3410000000000002</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-273.53399999999999</v>
+        <v>-6.306</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>38.244</v>
       </c>
       <c r="AA22">
-        <v>59.003999999999998</v>
+        <v>7.8529999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>74.623999999999995</v>
+        <v>34.707000000000001</v>
       </c>
       <c r="D23">
-        <v>347.24599999999998</v>
+        <v>149.512</v>
       </c>
       <c r="E23">
-        <v>263.29199999999997</v>
+        <v>112.845</v>
       </c>
       <c r="F23">
-        <v>157.64699999999999</v>
+        <v>69.463999999999999</v>
       </c>
       <c r="G23">
-        <v>464.505</v>
+        <v>407.69499999999999</v>
       </c>
       <c r="H23">
-        <v>1624.135</v>
+        <v>869.86300000000006</v>
       </c>
       <c r="I23">
-        <v>150.298</v>
+        <v>62.686999999999998</v>
       </c>
       <c r="J23">
-        <v>670.50699999999995</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>203.58099999999999</v>
+        <v>93.683000000000007</v>
       </c>
       <c r="O23">
-        <v>907.60799999999995</v>
+        <v>94.856999999999999</v>
       </c>
       <c r="P23">
-        <v>700.87599999999998</v>
+        <v>2E-3</v>
       </c>
       <c r="Q23">
-        <v>-3.7629999999999999</v>
+        <v>27.184000000000001</v>
       </c>
       <c r="R23">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>716.52700000000004</v>
+        <v>775.00599999999997</v>
       </c>
       <c r="U23">
-        <v>137.65299999999999</v>
+        <v>124.012</v>
       </c>
       <c r="V23">
-        <v>125.02500000000001</v>
+        <v>66.39</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-88.507000000000005</v>
+        <v>1.923</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>21.498000000000001</v>
+        <v>-22.358000000000001</v>
       </c>
       <c r="AA23">
-        <v>74.623999999999995</v>
+        <v>34.71</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>84.122</v>
+        <v>31.573</v>
       </c>
       <c r="D24">
-        <v>332.65899999999999</v>
+        <v>137.22</v>
       </c>
       <c r="E24">
-        <v>82.334999999999994</v>
+        <v>31.634</v>
       </c>
       <c r="F24">
-        <v>166.16399999999999</v>
+        <v>62.975999999999999</v>
       </c>
       <c r="G24">
-        <v>499.30599999999998</v>
+        <v>411.35</v>
       </c>
       <c r="H24">
-        <v>1649.82</v>
+        <v>894.70500000000004</v>
       </c>
       <c r="I24">
-        <v>76.953000000000003</v>
+        <v>8.7159999999999993</v>
       </c>
       <c r="J24">
-        <v>564.34100000000001</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>278.78300000000002</v>
+        <v>83.332999999999998</v>
       </c>
       <c r="O24">
-        <v>875.36400000000003</v>
+        <v>84.734999999999999</v>
       </c>
       <c r="P24">
-        <v>640.49199999999996</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>18.196000000000002</v>
+        <v>2.5779999999999998</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="S24">
-        <v>4844</v>
+        <v>2133</v>
       </c>
       <c r="T24">
-        <v>774.45600000000002</v>
+        <v>809.97</v>
       </c>
       <c r="U24">
-        <v>155.84899999999999</v>
+        <v>126.59</v>
       </c>
       <c r="V24">
-        <v>124.152</v>
+        <v>49.53</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-68.072999999999993</v>
+        <v>2.6589999999999998</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-20.783000000000001</v>
       </c>
       <c r="AA24">
-        <v>84.122</v>
+        <v>31.573</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>167.28</v>
+        <v>30.344999999999999</v>
       </c>
       <c r="D25">
-        <v>345.99099999999999</v>
+        <v>132.12100000000001</v>
       </c>
       <c r="E25">
-        <v>294.358</v>
+        <v>100.375</v>
       </c>
       <c r="F25">
-        <v>145.29300000000001</v>
+        <v>61.89</v>
       </c>
       <c r="G25">
-        <v>630.71100000000001</v>
+        <v>447.20600000000002</v>
       </c>
       <c r="H25">
-        <v>1770.396</v>
+        <v>939.02700000000004</v>
       </c>
       <c r="I25">
-        <v>175.96899999999999</v>
+        <v>56.978999999999999</v>
       </c>
       <c r="J25">
-        <v>573.03</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>357.678</v>
+        <v>93.918000000000006</v>
       </c>
       <c r="O25">
-        <v>962.98900000000003</v>
+        <v>95.352000000000004</v>
       </c>
       <c r="P25">
-        <v>744.18100000000004</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.571999999999999</v>
+        <v>5.5E-2</v>
       </c>
       <c r="R25">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>807.40700000000004</v>
+        <v>843.67499999999995</v>
       </c>
       <c r="U25">
-        <v>168.42099999999999</v>
+        <v>126.645</v>
       </c>
       <c r="V25">
-        <v>74.293000000000006</v>
+        <v>53.988</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-16.738</v>
+        <v>2.153</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-1.05</v>
+        <v>-38.33</v>
       </c>
       <c r="AA25">
-        <v>167.28</v>
+        <v>30.344999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>66.066000000000003</v>
+        <v>30.39</v>
       </c>
       <c r="D26">
-        <v>349.53199999999998</v>
+        <v>128.92500000000001</v>
       </c>
       <c r="E26">
-        <v>340.43799999999999</v>
+        <v>112.17400000000001</v>
       </c>
       <c r="F26">
-        <v>146.76499999999999</v>
+        <v>60.389000000000003</v>
       </c>
       <c r="G26">
-        <v>659.25199999999995</v>
+        <v>472.62200000000001</v>
       </c>
       <c r="H26">
-        <v>1841.241</v>
+        <v>969.02700000000004</v>
       </c>
       <c r="I26">
-        <v>184.96799999999999</v>
+        <v>58.786999999999999</v>
       </c>
       <c r="J26">
-        <v>565.92600000000004</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>345.947</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="O26">
-        <v>945.53800000000001</v>
+        <v>82.242000000000004</v>
       </c>
       <c r="P26">
-        <v>712.077</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>6.5309999999999997</v>
+        <v>-2.5920000000000001</v>
       </c>
       <c r="R26">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>895.70299999999997</v>
+        <v>886.78499999999997</v>
       </c>
       <c r="U26">
-        <v>174.952</v>
+        <v>124.053</v>
       </c>
       <c r="V26">
-        <v>81.234999999999999</v>
+        <v>7.6260000000000003</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-23.611000000000001</v>
+        <v>12.31</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-8.83</v>
       </c>
       <c r="AA26">
-        <v>66.066000000000003</v>
+        <v>30.391999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>90.546000000000006</v>
+        <v>38.868000000000002</v>
       </c>
       <c r="D27">
-        <v>373.86200000000002</v>
+        <v>145.65199999999999</v>
       </c>
       <c r="E27">
-        <v>302.07100000000003</v>
+        <v>105.694</v>
       </c>
       <c r="F27">
-        <v>172.505</v>
+        <v>72.986999999999995</v>
       </c>
       <c r="G27">
-        <v>593.60900000000004</v>
+        <v>387.09399999999999</v>
       </c>
       <c r="H27">
-        <v>1811.6859999999999</v>
+        <v>1015.033</v>
       </c>
       <c r="I27">
-        <v>192.76900000000001</v>
+        <v>62.966999999999999</v>
       </c>
       <c r="J27">
-        <v>550.755</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>221.488</v>
+        <v>84.32</v>
       </c>
       <c r="O27">
-        <v>805.35699999999997</v>
+        <v>85.855000000000004</v>
       </c>
       <c r="P27">
-        <v>566.90599999999995</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>14.669</v>
+        <v>-3.274</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1006.329</v>
+        <v>929.178</v>
       </c>
       <c r="U27">
-        <v>189.62100000000001</v>
+        <v>120.779</v>
       </c>
       <c r="V27">
-        <v>192.29900000000001</v>
+        <v>65.650999999999996</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-135.21</v>
+        <v>2.0459999999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-2.516</v>
+        <v>67.55</v>
       </c>
       <c r="AA27">
-        <v>90.546000000000006</v>
+        <v>38.866999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>70.334999999999994</v>
+        <v>36.734999999999999</v>
       </c>
       <c r="D28">
-        <v>378.596</v>
+        <v>153.982</v>
       </c>
       <c r="E28">
-        <v>105.878</v>
+        <v>35.64</v>
       </c>
       <c r="F28">
-        <v>197.16499999999999</v>
+        <v>92.816999999999993</v>
       </c>
       <c r="G28">
-        <v>587.26099999999997</v>
+        <v>363.70800000000003</v>
       </c>
       <c r="H28">
-        <v>1982.501</v>
+        <v>1014.6</v>
       </c>
       <c r="I28">
-        <v>71.16</v>
+        <v>13.391999999999999</v>
       </c>
       <c r="J28">
-        <v>550.88300000000004</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>9.2560000000000002</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,161 +3050,161 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>302.15300000000002</v>
+        <v>115.858</v>
       </c>
       <c r="O28">
-        <v>883.90099999999995</v>
+        <v>133.73400000000001</v>
       </c>
       <c r="P28">
-        <v>633.03800000000001</v>
+        <v>9.2560000000000002</v>
       </c>
       <c r="Q28">
-        <v>20.478999999999999</v>
+        <v>-17.693000000000001</v>
       </c>
       <c r="R28">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="S28">
-        <v>5323</v>
+        <v>2536</v>
       </c>
       <c r="T28">
-        <v>1098.5999999999999</v>
+        <v>880.86599999999999</v>
       </c>
       <c r="U28">
-        <v>210.1</v>
+        <v>107.621</v>
       </c>
       <c r="V28">
-        <v>144.23099999999999</v>
+        <v>54.787999999999997</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>68.584000000000003</v>
+        <v>-87.173000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="AA28">
-        <v>70.334999999999994</v>
+        <v>36.734999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>77.515000000000001</v>
+        <v>37.61</v>
       </c>
       <c r="D29">
-        <v>419.16800000000001</v>
+        <v>183.95699999999999</v>
       </c>
       <c r="E29">
-        <v>366.64100000000002</v>
+        <v>114.88800000000001</v>
       </c>
       <c r="F29">
-        <v>199.06399999999999</v>
+        <v>78.391999999999996</v>
       </c>
       <c r="G29">
-        <v>654.37099999999998</v>
+        <v>407.50900000000001</v>
       </c>
       <c r="H29">
-        <v>2062.67</v>
+        <v>1077.6869999999999</v>
       </c>
       <c r="I29">
-        <v>222.4</v>
+        <v>80.308000000000007</v>
       </c>
       <c r="J29">
-        <v>550.70399999999995</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-1.784</v>
       </c>
       <c r="M29">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>289.16899999999998</v>
+        <v>125.102</v>
       </c>
       <c r="O29">
-        <v>873.76099999999997</v>
+        <v>143.589</v>
       </c>
       <c r="P29">
-        <v>583.85400000000004</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>14.146000000000001</v>
+        <v>149.70500000000001</v>
       </c>
       <c r="R29">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1188.9090000000001</v>
+        <v>934.09799999999996</v>
       </c>
       <c r="U29">
-        <v>224.24600000000001</v>
+        <v>249.85400000000001</v>
       </c>
       <c r="V29">
-        <v>93.36</v>
+        <v>55.692</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-39.75</v>
+        <v>11.263</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>102.625</v>
       </c>
       <c r="AA29">
-        <v>77.515000000000001</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>103.256</v>
+        <v>32.026000000000003</v>
       </c>
       <c r="D30">
-        <v>459.10599999999999</v>
+        <v>173.459</v>
       </c>
       <c r="E30">
-        <v>398.97199999999998</v>
+        <v>137.286</v>
       </c>
       <c r="F30">
-        <v>218.209</v>
+        <v>68.608000000000004</v>
       </c>
       <c r="G30">
-        <v>666.476</v>
+        <v>361.61799999999999</v>
       </c>
       <c r="H30">
-        <v>2143.5410000000002</v>
+        <v>1052.903</v>
       </c>
       <c r="I30">
-        <v>242.59399999999999</v>
+        <v>90.933999999999997</v>
       </c>
       <c r="J30">
-        <v>400.64600000000002</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>375.048</v>
+        <v>113.014</v>
       </c>
       <c r="O30">
-        <v>811.75</v>
+        <v>131.06</v>
       </c>
       <c r="P30">
-        <v>512.49699999999996</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>-28.946000000000002</v>
+        <v>-72.655000000000001</v>
       </c>
       <c r="R30">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1331.7909999999999</v>
+        <v>921.84299999999996</v>
       </c>
       <c r="U30">
-        <v>195.3</v>
+        <v>173.22499999999999</v>
       </c>
       <c r="V30">
-        <v>93.033000000000001</v>
+        <v>-1.1970000000000001</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-61.281999999999996</v>
+        <v>-34.832000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3255,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>103.256</v>
+        <v>32.026000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>127.348</v>
+        <v>46.475000000000001</v>
       </c>
       <c r="D31">
-        <v>478.19799999999998</v>
+        <v>221.15</v>
       </c>
       <c r="E31">
-        <v>356.125</v>
+        <v>129.52600000000001</v>
       </c>
       <c r="F31">
-        <v>219.06800000000001</v>
+        <v>88.165999999999997</v>
       </c>
       <c r="G31">
-        <v>630.90200000000004</v>
+        <v>271.52100000000002</v>
       </c>
       <c r="H31">
-        <v>2165.1930000000002</v>
+        <v>1008.261</v>
       </c>
       <c r="I31">
-        <v>245.47300000000001</v>
+        <v>99.206999999999994</v>
       </c>
       <c r="J31">
-        <v>398.91399999999999</v>
+        <v>4.0129999999999999</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,37 +3299,37 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>270.57799999999997</v>
+        <v>128.91</v>
       </c>
       <c r="O31">
-        <v>704.38099999999997</v>
+        <v>145.61099999999999</v>
       </c>
       <c r="P31">
-        <v>400.065</v>
+        <v>4.0129999999999999</v>
       </c>
       <c r="Q31">
-        <v>8.9749999999999996</v>
+        <v>-87.507000000000005</v>
       </c>
       <c r="R31">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1460.8119999999999</v>
+        <v>862.65</v>
       </c>
       <c r="U31">
-        <v>204.27500000000001</v>
+        <v>96.344999999999999</v>
       </c>
       <c r="V31">
-        <v>190.804</v>
+        <v>85.951999999999998</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-103.48699999999999</v>
+        <v>-117.255</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>127.348</v>
+        <v>46.476999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>109.748</v>
+        <v>40.820999999999998</v>
       </c>
       <c r="D32">
-        <v>449.22300000000001</v>
+        <v>206.28200000000001</v>
       </c>
       <c r="E32">
-        <v>119.81100000000001</v>
+        <v>36.892000000000003</v>
       </c>
       <c r="F32">
-        <v>236.82499999999999</v>
+        <v>107.79300000000001</v>
       </c>
       <c r="G32">
-        <v>709.11599999999999</v>
+        <v>212.75299999999999</v>
       </c>
       <c r="H32">
-        <v>2307.6979999999999</v>
+        <v>956.24699999999996</v>
       </c>
       <c r="I32">
-        <v>133.71700000000001</v>
+        <v>13.193</v>
       </c>
       <c r="J32">
-        <v>398.74700000000001</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>17.501999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>277.25599999999997</v>
+        <v>128.25200000000001</v>
       </c>
       <c r="O32">
-        <v>726.59900000000005</v>
+        <v>157.251</v>
       </c>
       <c r="P32">
-        <v>399.89800000000002</v>
+        <v>17.501999999999999</v>
       </c>
       <c r="Q32">
-        <v>70.245000000000005</v>
+        <v>-58.21</v>
       </c>
       <c r="R32">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="S32">
-        <v>6026</v>
+        <v>2975</v>
       </c>
       <c r="T32">
-        <v>1581.0989999999999</v>
+        <v>798.99599999999998</v>
       </c>
       <c r="U32">
-        <v>274.52</v>
+        <v>38.954000000000001</v>
       </c>
       <c r="V32">
-        <v>157.87200000000001</v>
+        <v>53.616</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>22.481000000000002</v>
+        <v>-88.852999999999994</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,81 +3421,81 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>109.748</v>
+        <v>40.820999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>114.083</v>
+        <v>37.253999999999998</v>
       </c>
       <c r="D33">
-        <v>461.36799999999999</v>
+        <v>191.56899999999999</v>
       </c>
       <c r="E33">
-        <v>73.674999999999997</v>
+        <v>118.508</v>
       </c>
       <c r="F33">
-        <v>195.91800000000001</v>
+        <v>79.569999999999993</v>
       </c>
       <c r="G33">
-        <v>763.22199999999998</v>
+        <v>220.88399999999999</v>
       </c>
       <c r="H33">
-        <v>2381.788</v>
+        <v>949.56200000000001</v>
       </c>
       <c r="I33">
-        <v>235.982</v>
+        <v>77.328999999999994</v>
       </c>
       <c r="J33">
-        <v>398.642</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>7.5789999999999997</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-9.923</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>254.80799999999999</v>
+        <v>114.863</v>
       </c>
       <c r="O33">
-        <v>710.02800000000002</v>
+        <v>142.434</v>
       </c>
       <c r="P33">
-        <v>399.64100000000002</v>
+        <v>7.5789999999999997</v>
       </c>
       <c r="Q33">
-        <v>45.789000000000001</v>
+        <v>11.816000000000001</v>
       </c>
       <c r="R33">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1671.76</v>
+        <v>807.12800000000004</v>
       </c>
       <c r="U33">
-        <v>320.30900000000003</v>
+        <v>50.77</v>
       </c>
       <c r="V33">
-        <v>107.68300000000001</v>
+        <v>52.363999999999997</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1.2270000000000001</v>
+        <v>-9.2490000000000006</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>114.083</v>
+        <v>37.253999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>131.37299999999999</v>
+        <v>27.152999999999999</v>
       </c>
       <c r="D34">
-        <v>484.89800000000002</v>
+        <v>169.85499999999999</v>
       </c>
       <c r="E34">
-        <v>78.75</v>
+        <v>137.81</v>
       </c>
       <c r="F34">
-        <v>208.226</v>
+        <v>67.292000000000002</v>
       </c>
       <c r="G34">
-        <v>628.46600000000001</v>
+        <v>227.62799999999999</v>
       </c>
       <c r="H34">
-        <v>2296.9050000000002</v>
+        <v>955.66600000000005</v>
       </c>
       <c r="I34">
-        <v>266.12599999999998</v>
+        <v>75.081999999999994</v>
       </c>
       <c r="J34">
-        <v>398.74</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>9.91</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>372.03300000000002</v>
+        <v>108.465</v>
       </c>
       <c r="O34">
-        <v>836.952</v>
+        <v>133.91499999999999</v>
       </c>
       <c r="P34">
-        <v>492.86200000000002</v>
+        <v>9.91</v>
       </c>
       <c r="Q34">
-        <v>-212.13499999999999</v>
+        <v>-28.321000000000002</v>
       </c>
       <c r="R34">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1459.953</v>
+        <v>821.75099999999998</v>
       </c>
       <c r="U34">
-        <v>108.17400000000001</v>
+        <v>22.449000000000002</v>
       </c>
       <c r="V34">
-        <v>107.521</v>
+        <v>-7.5640000000000001</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-264.23</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3587,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>131.37299999999999</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>192.74100000000001</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>553.11599999999999</v>
+        <v>197.32599999999999</v>
       </c>
       <c r="E35">
-        <v>91.391999999999996</v>
+        <v>107.47199999999999</v>
       </c>
       <c r="F35">
-        <v>251.57900000000001</v>
+        <v>85.466999999999999</v>
       </c>
       <c r="G35">
-        <v>613.58500000000004</v>
+        <v>274.505</v>
       </c>
       <c r="H35">
-        <v>2391.7629999999999</v>
+        <v>1005.986</v>
       </c>
       <c r="I35">
-        <v>279.779</v>
+        <v>77.646000000000001</v>
       </c>
       <c r="J35">
-        <v>398.83499999999998</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,37 +3631,37 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>296.90600000000001</v>
+        <v>107.679</v>
       </c>
       <c r="O35">
-        <v>772.91099999999994</v>
+        <v>140.29499999999999</v>
       </c>
       <c r="P35">
-        <v>406.39100000000002</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>-5.3479999999999999</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1618.8520000000001</v>
+        <v>865.69100000000003</v>
       </c>
       <c r="U35">
-        <v>102.82599999999999</v>
+        <v>118.96299999999999</v>
       </c>
       <c r="V35">
-        <v>238.292</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-119.82599999999999</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,39 +3670,39 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>192.74100000000001</v>
+        <v>42.069000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>153.49600000000001</v>
+        <v>34.627000000000002</v>
       </c>
       <c r="D36">
-        <v>542.57500000000005</v>
+        <v>184.33199999999999</v>
       </c>
       <c r="E36">
-        <v>84.331999999999994</v>
+        <v>35.337000000000003</v>
       </c>
       <c r="F36">
-        <v>242.619</v>
+        <v>100.53</v>
       </c>
       <c r="G36">
-        <v>687.16700000000003</v>
+        <v>315.93299999999999</v>
       </c>
       <c r="H36">
-        <v>2547.6170000000002</v>
+        <v>1058.0319999999999</v>
       </c>
       <c r="I36">
-        <v>113.947</v>
+        <v>44.996000000000002</v>
       </c>
       <c r="J36">
-        <v>400.09100000000001</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>282.00400000000002</v>
+        <v>103.584</v>
       </c>
       <c r="O36">
-        <v>769.23599999999999</v>
+        <v>136.57300000000001</v>
       </c>
       <c r="P36">
-        <v>401.22899999999998</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>83.492999999999995</v>
+        <v>43.728000000000002</v>
       </c>
       <c r="R36">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="S36">
-        <v>7327</v>
+        <v>2713</v>
       </c>
       <c r="T36">
-        <v>1778.3810000000001</v>
+        <v>921.45899999999995</v>
       </c>
       <c r="U36">
-        <v>186.31899999999999</v>
+        <v>162.691</v>
       </c>
       <c r="V36">
-        <v>193.15</v>
+        <v>48.781999999999996</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>12.525</v>
+        <v>2.61</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3633,39 +3753,39 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>153.49600000000001</v>
+        <v>34.627000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>218.18</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="D37">
-        <v>554.42399999999998</v>
+        <v>185.46100000000001</v>
       </c>
       <c r="E37">
-        <v>82.082999999999998</v>
+        <v>109.715</v>
       </c>
       <c r="F37">
-        <v>264.98399999999998</v>
+        <v>82.584999999999994</v>
       </c>
       <c r="G37">
-        <v>744.07600000000002</v>
+        <v>366.48</v>
       </c>
       <c r="H37">
-        <v>2855.9389999999999</v>
+        <v>1123.3399999999999</v>
       </c>
       <c r="I37">
-        <v>289.24700000000001</v>
+        <v>93.635999999999996</v>
       </c>
       <c r="J37">
-        <v>399.00099999999998</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>323.31799999999998</v>
+        <v>126.372</v>
       </c>
       <c r="O37">
-        <v>929.34</v>
+        <v>160.404</v>
       </c>
       <c r="P37">
-        <v>540.88699999999994</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-5.2169999999999996</v>
+        <v>55.588000000000001</v>
       </c>
       <c r="R37">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1926.5989999999999</v>
+        <v>962.93600000000004</v>
       </c>
       <c r="U37">
-        <v>181.102</v>
+        <v>218.279</v>
       </c>
       <c r="V37">
-        <v>212.458</v>
+        <v>77.691000000000003</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-88.733999999999995</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="Y37">
-        <v>114.241</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>218.18</v>
+        <v>35.270000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>168.70699999999999</v>
+        <v>35.734999999999999</v>
       </c>
       <c r="D38">
-        <v>575.14</v>
+        <v>176.601</v>
       </c>
       <c r="E38">
-        <v>92.212999999999994</v>
+        <v>121.753</v>
       </c>
       <c r="F38">
-        <v>269.56700000000001</v>
+        <v>78.686999999999998</v>
       </c>
       <c r="G38">
-        <v>731.96299999999997</v>
+        <v>365.108</v>
       </c>
       <c r="H38">
-        <v>3048.605</v>
+        <v>1147.8889999999999</v>
       </c>
       <c r="I38">
-        <v>296.97699999999998</v>
+        <v>92.061000000000007</v>
       </c>
       <c r="J38">
-        <v>399.04599999999999</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>342.83699999999999</v>
+        <v>111.646</v>
       </c>
       <c r="O38">
-        <v>923.87599999999998</v>
+        <v>146.46600000000001</v>
       </c>
       <c r="P38">
-        <v>519.28099999999995</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>-87.590999999999994</v>
+        <v>-28.989000000000001</v>
       </c>
       <c r="R38">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2124.7289999999998</v>
+        <v>1001.423</v>
       </c>
       <c r="U38">
-        <v>93.510999999999996</v>
+        <v>189.29</v>
       </c>
       <c r="V38">
-        <v>144.46199999999999</v>
+        <v>5.1130000000000004</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>37.460999999999999</v>
+        <v>2.548</v>
       </c>
       <c r="Y38">
-        <v>82.706000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>168.70699999999999</v>
+        <v>35.732999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>147.48699999999999</v>
+        <v>44.389000000000003</v>
       </c>
       <c r="D39">
-        <v>550.36</v>
+        <v>220.34899999999999</v>
       </c>
       <c r="E39">
-        <v>73.057000000000002</v>
+        <v>102.093</v>
       </c>
       <c r="F39">
-        <v>242.613</v>
+        <v>100.498</v>
       </c>
       <c r="G39">
-        <v>794.15200000000004</v>
+        <v>419.68299999999999</v>
       </c>
       <c r="H39">
-        <v>3161.5830000000001</v>
+        <v>1202.0060000000001</v>
       </c>
       <c r="I39">
-        <v>250.84100000000001</v>
+        <v>102.54600000000001</v>
       </c>
       <c r="J39">
-        <v>399.15699999999998</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>286.56799999999998</v>
+        <v>120.676</v>
       </c>
       <c r="O39">
-        <v>880.572</v>
+        <v>155.54400000000001</v>
       </c>
       <c r="P39">
-        <v>516.28899999999999</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>212.876</v>
+        <v>74.962000000000003</v>
       </c>
       <c r="R39">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2281.011</v>
+        <v>1046.462</v>
       </c>
       <c r="U39">
-        <v>306.387</v>
+        <v>264.25200000000001</v>
       </c>
       <c r="V39">
-        <v>294.048</v>
+        <v>91.179000000000002</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>8.6929999999999996</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="Y39">
-        <v>90.194000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>147.48699999999999</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>165.53299999999999</v>
+        <v>36.232999999999997</v>
       </c>
       <c r="D40">
-        <v>525.65899999999999</v>
+        <v>190.46799999999999</v>
       </c>
       <c r="E40">
-        <v>87.891000000000005</v>
+        <v>35.063000000000002</v>
       </c>
       <c r="F40">
-        <v>250.43100000000001</v>
+        <v>107.124</v>
       </c>
       <c r="G40">
-        <v>963.75900000000001</v>
+        <v>437.41500000000002</v>
       </c>
       <c r="H40">
-        <v>3455.261</v>
+        <v>1228.8119999999999</v>
       </c>
       <c r="I40">
-        <v>132.91900000000001</v>
+        <v>55.292999999999999</v>
       </c>
       <c r="J40">
-        <v>396.47</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>356.04399999999998</v>
+        <v>107.224</v>
       </c>
       <c r="O40">
-        <v>965.745</v>
+        <v>141.578</v>
       </c>
       <c r="P40">
-        <v>518.19200000000001</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="Q40">
-        <v>171.33099999999999</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="S40">
-        <v>7600</v>
+        <v>2834</v>
       </c>
       <c r="T40">
-        <v>2489.5160000000001</v>
+        <v>1087.2339999999999</v>
       </c>
       <c r="U40">
-        <v>477.71800000000002</v>
+        <v>268.18799999999999</v>
       </c>
       <c r="V40">
-        <v>266.91699999999997</v>
+        <v>25.423999999999999</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>15.166</v>
+        <v>-3.3370000000000002</v>
       </c>
       <c r="Y40">
-        <v>96.15</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>165.53299999999999</v>
+        <v>36.232999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>200.285</v>
+        <v>37.823</v>
       </c>
       <c r="D41">
-        <v>592.94000000000005</v>
+        <v>212.667</v>
       </c>
       <c r="E41">
-        <v>91.070999999999998</v>
+        <v>117.032</v>
       </c>
       <c r="F41">
-        <v>305.81</v>
+        <v>88.853999999999999</v>
       </c>
       <c r="G41">
-        <v>1138.1759999999999</v>
+        <v>416.71600000000001</v>
       </c>
       <c r="H41">
-        <v>3741.1880000000001</v>
+        <v>1210.1469999999999</v>
       </c>
       <c r="I41">
-        <v>359.81599999999997</v>
+        <v>95.423000000000002</v>
       </c>
       <c r="J41">
-        <v>411.84500000000003</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4126,3451 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-0.32700000000000001</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>407.536</v>
+        <v>116.23</v>
       </c>
       <c r="O41">
-        <v>1030.355</v>
+        <v>151.11799999999999</v>
       </c>
       <c r="P41">
-        <v>525.93899999999996</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>128.01400000000001</v>
+        <v>-7.718</v>
       </c>
       <c r="R41">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2710.8330000000001</v>
+        <v>1059.029</v>
       </c>
       <c r="U41">
-        <v>605.73199999999997</v>
+        <v>260.47000000000003</v>
       </c>
       <c r="V41">
-        <v>258.53300000000002</v>
+        <v>77.537999999999997</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>19.198</v>
+        <v>-74.926000000000002</v>
       </c>
       <c r="Y41">
-        <v>88.49</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>200.285</v>
+        <v>37.823</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40574</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>37.896000000000001</v>
+      </c>
+      <c r="D42">
+        <v>207.38</v>
+      </c>
+      <c r="E42">
+        <v>136.97200000000001</v>
+      </c>
+      <c r="F42">
+        <v>85.905000000000001</v>
+      </c>
+      <c r="G42">
+        <v>392.35300000000001</v>
+      </c>
+      <c r="H42">
+        <v>1188.4110000000001</v>
+      </c>
+      <c r="I42">
+        <v>101.428</v>
+      </c>
+      <c r="J42">
+        <v>350.47399999999999</v>
+      </c>
+      <c r="K42">
+        <v>50.655999999999999</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>160.893</v>
+      </c>
+      <c r="O42">
+        <v>547.077</v>
+      </c>
+      <c r="P42">
+        <v>401.13</v>
+      </c>
+      <c r="Q42">
+        <v>-56.515999999999998</v>
+      </c>
+      <c r="R42">
+        <v>40574</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>641.33399999999995</v>
+      </c>
+      <c r="U42">
+        <v>203.95400000000001</v>
+      </c>
+      <c r="V42">
+        <v>15.785</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-61.113</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>37.893000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>50.134999999999998</v>
+      </c>
+      <c r="D43">
+        <v>236.755</v>
+      </c>
+      <c r="E43">
+        <v>117.53400000000001</v>
+      </c>
+      <c r="F43">
+        <v>108.907</v>
+      </c>
+      <c r="G43">
+        <v>353.36599999999999</v>
+      </c>
+      <c r="H43">
+        <v>1191.3119999999999</v>
+      </c>
+      <c r="I43">
+        <v>104.229</v>
+      </c>
+      <c r="J43">
+        <v>338.404</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>171.40600000000001</v>
+      </c>
+      <c r="O43">
+        <v>544.97</v>
+      </c>
+      <c r="P43">
+        <v>389.08199999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-11.805999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>646.34199999999998</v>
+      </c>
+      <c r="U43">
+        <v>192.148</v>
+      </c>
+      <c r="V43">
+        <v>107.327</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-72.046000000000006</v>
+      </c>
+      <c r="Y43">
+        <v>0.373</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>50.136000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>40.521000000000001</v>
+      </c>
+      <c r="D44">
+        <v>215.44200000000001</v>
+      </c>
+      <c r="E44">
+        <v>50.447000000000003</v>
+      </c>
+      <c r="F44">
+        <v>110.286</v>
+      </c>
+      <c r="G44">
+        <v>241.86799999999999</v>
+      </c>
+      <c r="H44">
+        <v>1084.4359999999999</v>
+      </c>
+      <c r="I44">
+        <v>54.555</v>
+      </c>
+      <c r="J44">
+        <v>325.38600000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>166.626</v>
+      </c>
+      <c r="O44">
+        <v>529.26400000000001</v>
+      </c>
+      <c r="P44">
+        <v>375.75599999999997</v>
+      </c>
+      <c r="Q44">
+        <v>-118.139</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>2825</v>
+      </c>
+      <c r="T44">
+        <v>555.17200000000003</v>
+      </c>
+      <c r="U44">
+        <v>74.009</v>
+      </c>
+      <c r="V44">
+        <v>42.281999999999996</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-145.99</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>40.521000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>41.149000000000001</v>
+      </c>
+      <c r="D45">
+        <v>225.626</v>
+      </c>
+      <c r="E45">
+        <v>136.28399999999999</v>
+      </c>
+      <c r="F45">
+        <v>95.924999999999997</v>
+      </c>
+      <c r="G45">
+        <v>384.27100000000002</v>
+      </c>
+      <c r="H45">
+        <v>1225.884</v>
+      </c>
+      <c r="I45">
+        <v>101.489</v>
+      </c>
+      <c r="J45">
+        <v>425.93700000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>208.63499999999999</v>
+      </c>
+      <c r="O45">
+        <v>671.03899999999999</v>
+      </c>
+      <c r="P45">
+        <v>501.32400000000001</v>
+      </c>
+      <c r="Q45">
+        <v>138.66800000000001</v>
+      </c>
+      <c r="R45">
+        <v>40847</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>554.84500000000003</v>
+      </c>
+      <c r="U45">
+        <v>212.67699999999999</v>
+      </c>
+      <c r="V45">
+        <v>64.186999999999998</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>82.265000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>41.149000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>40.603000000000002</v>
+      </c>
+      <c r="D46">
+        <v>227.904</v>
+      </c>
+      <c r="E46">
+        <v>151.90299999999999</v>
+      </c>
+      <c r="F46">
+        <v>99.695999999999998</v>
+      </c>
+      <c r="G46">
+        <v>328.21199999999999</v>
+      </c>
+      <c r="H46">
+        <v>1139.6579999999999</v>
+      </c>
+      <c r="I46">
+        <v>100.441</v>
+      </c>
+      <c r="J46">
+        <v>410.33600000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>186.18199999999999</v>
+      </c>
+      <c r="O46">
+        <v>632.28599999999994</v>
+      </c>
+      <c r="P46">
+        <v>485.51600000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-85.037000000000006</v>
+      </c>
+      <c r="R46">
+        <v>40939</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>507.37200000000001</v>
+      </c>
+      <c r="U46">
+        <v>127.64</v>
+      </c>
+      <c r="V46">
+        <v>26.161000000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-103.265</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>40.603000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>55.470999999999997</v>
+      </c>
+      <c r="D47">
+        <v>244.10499999999999</v>
+      </c>
+      <c r="E47">
+        <v>129.33500000000001</v>
+      </c>
+      <c r="F47">
+        <v>115.26900000000001</v>
+      </c>
+      <c r="G47">
+        <v>383.375</v>
+      </c>
+      <c r="H47">
+        <v>1204.7629999999999</v>
+      </c>
+      <c r="I47">
+        <v>108.592</v>
+      </c>
+      <c r="J47">
+        <v>390.524</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>198.77099999999999</v>
+      </c>
+      <c r="O47">
+        <v>626.03099999999995</v>
+      </c>
+      <c r="P47">
+        <v>465.95</v>
+      </c>
+      <c r="Q47">
+        <v>79.494</v>
+      </c>
+      <c r="R47">
+        <v>41029</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>578.73199999999997</v>
+      </c>
+      <c r="U47">
+        <v>207.13399999999999</v>
+      </c>
+      <c r="V47">
+        <v>106.60299999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-16.425999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0.252</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>55.470999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>44.896000000000001</v>
+      </c>
+      <c r="D48">
+        <v>226.55600000000001</v>
+      </c>
+      <c r="E48">
+        <v>50.243000000000002</v>
+      </c>
+      <c r="F48">
+        <v>103.994</v>
+      </c>
+      <c r="G48">
+        <v>321.22699999999998</v>
+      </c>
+      <c r="H48">
+        <v>1154</v>
+      </c>
+      <c r="I48">
+        <v>52.506</v>
+      </c>
+      <c r="J48">
+        <v>373.85</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>186.31899999999999</v>
+      </c>
+      <c r="O48">
+        <v>592.88300000000004</v>
+      </c>
+      <c r="P48">
+        <v>449.02</v>
+      </c>
+      <c r="Q48">
+        <v>-67.022000000000006</v>
+      </c>
+      <c r="R48">
+        <v>41121</v>
+      </c>
+      <c r="S48">
+        <v>2981</v>
+      </c>
+      <c r="T48">
+        <v>561.11699999999996</v>
+      </c>
+      <c r="U48">
+        <v>140.11199999999999</v>
+      </c>
+      <c r="V48">
+        <v>32.722000000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-77.447000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>44.896000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>45.844999999999999</v>
+      </c>
+      <c r="D49">
+        <v>238.86600000000001</v>
+      </c>
+      <c r="E49">
+        <v>149.554</v>
+      </c>
+      <c r="F49">
+        <v>106.175</v>
+      </c>
+      <c r="G49">
+        <v>327.06900000000002</v>
+      </c>
+      <c r="H49">
+        <v>1214.5260000000001</v>
+      </c>
+      <c r="I49">
+        <v>112.34699999999999</v>
+      </c>
+      <c r="J49">
+        <v>354.59800000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-18.754999999999999</v>
+      </c>
+      <c r="N49">
+        <v>217.215</v>
+      </c>
+      <c r="O49">
+        <v>605.65499999999997</v>
+      </c>
+      <c r="P49">
+        <v>429.77499999999998</v>
+      </c>
+      <c r="Q49">
+        <v>-8.6820000000000004</v>
+      </c>
+      <c r="R49">
+        <v>41213</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>608.87099999999998</v>
+      </c>
+      <c r="U49">
+        <v>131.43</v>
+      </c>
+      <c r="V49">
+        <v>75.314999999999998</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-26.57</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>45.844999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>39.64</v>
+      </c>
+      <c r="D50">
+        <v>266.185</v>
+      </c>
+      <c r="E50">
+        <v>198.80500000000001</v>
+      </c>
+      <c r="F50">
+        <v>117.07899999999999</v>
+      </c>
+      <c r="G50">
+        <v>311.90499999999997</v>
+      </c>
+      <c r="H50">
+        <v>1253.9459999999999</v>
+      </c>
+      <c r="I50">
+        <v>125.4</v>
+      </c>
+      <c r="J50">
+        <v>336.66800000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>212.81100000000001</v>
+      </c>
+      <c r="O50">
+        <v>586.44299999999998</v>
+      </c>
+      <c r="P50">
+        <v>411.84500000000003</v>
+      </c>
+      <c r="Q50">
+        <v>-81.92</v>
+      </c>
+      <c r="R50">
+        <v>41305</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>667.50300000000004</v>
+      </c>
+      <c r="U50">
+        <v>49.51</v>
+      </c>
+      <c r="V50">
+        <v>-22.225000000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-2.8450000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>53.235999999999997</v>
+      </c>
+      <c r="D51">
+        <v>277.63799999999998</v>
+      </c>
+      <c r="E51">
+        <v>164.155</v>
+      </c>
+      <c r="F51">
+        <v>121.197</v>
+      </c>
+      <c r="G51">
+        <v>353.16199999999998</v>
+      </c>
+      <c r="H51">
+        <v>1298.682</v>
+      </c>
+      <c r="I51">
+        <v>129.001</v>
+      </c>
+      <c r="J51">
+        <v>318.33</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>218.37700000000001</v>
+      </c>
+      <c r="O51">
+        <v>574.28800000000001</v>
+      </c>
+      <c r="P51">
+        <v>394.267</v>
+      </c>
+      <c r="Q51">
+        <v>89.820999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41394</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>724.39400000000001</v>
+      </c>
+      <c r="U51">
+        <v>139.33099999999999</v>
+      </c>
+      <c r="V51">
+        <v>129.91300000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-14.657999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>53.235999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>41.304000000000002</v>
+      </c>
+      <c r="D52">
+        <v>263.697</v>
+      </c>
+      <c r="E52">
+        <v>62.976999999999997</v>
+      </c>
+      <c r="F52">
+        <v>131.761</v>
+      </c>
+      <c r="G52">
+        <v>306.452</v>
+      </c>
+      <c r="H52">
+        <v>1334.481</v>
+      </c>
+      <c r="I52">
+        <v>70.561000000000007</v>
+      </c>
+      <c r="J52">
+        <v>299.11</v>
+      </c>
+      <c r="K52">
+        <v>16.291</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>238.559</v>
+      </c>
+      <c r="O52">
+        <v>572.08000000000004</v>
+      </c>
+      <c r="P52">
+        <v>391.44799999999998</v>
+      </c>
+      <c r="Q52">
+        <v>-75.7</v>
+      </c>
+      <c r="R52">
+        <v>41486</v>
+      </c>
+      <c r="S52">
+        <v>3875</v>
+      </c>
+      <c r="T52">
+        <v>762.40099999999995</v>
+      </c>
+      <c r="U52">
+        <v>63.631</v>
+      </c>
+      <c r="V52">
+        <v>16.323</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-21.818000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>41.304000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>41.421999999999997</v>
+      </c>
+      <c r="D53">
+        <v>279.88299999999998</v>
+      </c>
+      <c r="E53">
+        <v>187.61500000000001</v>
+      </c>
+      <c r="F53">
+        <v>107.836</v>
+      </c>
+      <c r="G53">
+        <v>320.95499999999998</v>
+      </c>
+      <c r="H53">
+        <v>1397.3879999999999</v>
+      </c>
+      <c r="I53">
+        <v>154.84700000000001</v>
+      </c>
+      <c r="J53">
+        <v>283.02100000000002</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>-16.291</v>
+      </c>
+      <c r="M53">
+        <v>-18.75</v>
+      </c>
+      <c r="N53">
+        <v>257.90699999999998</v>
+      </c>
+      <c r="O53">
+        <v>574.74099999999999</v>
+      </c>
+      <c r="P53">
+        <v>360.32600000000002</v>
+      </c>
+      <c r="Q53">
+        <v>13.420999999999999</v>
+      </c>
+      <c r="R53">
+        <v>41578</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>822.64700000000005</v>
+      </c>
+      <c r="U53">
+        <v>77.052000000000007</v>
+      </c>
+      <c r="V53">
+        <v>67.715000000000003</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-34.981000000000002</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>41.421999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>45.344999999999999</v>
+      </c>
+      <c r="D54">
+        <v>286.43400000000003</v>
+      </c>
+      <c r="E54">
+        <v>222.10400000000001</v>
+      </c>
+      <c r="F54">
+        <v>111.54600000000001</v>
+      </c>
+      <c r="G54">
+        <v>332.92899999999997</v>
+      </c>
+      <c r="H54">
+        <v>1438.4929999999999</v>
+      </c>
+      <c r="I54">
+        <v>140.87100000000001</v>
+      </c>
+      <c r="J54">
+        <v>263.68200000000002</v>
+      </c>
+      <c r="K54">
+        <v>17.033999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>259.65100000000001</v>
+      </c>
+      <c r="O54">
+        <v>557.76900000000001</v>
+      </c>
+      <c r="P54">
+        <v>357.74400000000003</v>
+      </c>
+      <c r="Q54">
+        <v>-30.853000000000002</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>880.72400000000005</v>
+      </c>
+      <c r="U54">
+        <v>46.198999999999998</v>
+      </c>
+      <c r="V54">
+        <v>8.0760000000000005</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>45.344999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>40.877000000000002</v>
+      </c>
+      <c r="D55">
+        <v>309.72199999999998</v>
+      </c>
+      <c r="E55">
+        <v>192.61</v>
+      </c>
+      <c r="F55">
+        <v>132.25200000000001</v>
+      </c>
+      <c r="G55">
+        <v>385.75400000000002</v>
+      </c>
+      <c r="H55">
+        <v>1476.672</v>
+      </c>
+      <c r="I55">
+        <v>164.21799999999999</v>
+      </c>
+      <c r="J55">
+        <v>244.30600000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>256.74200000000002</v>
+      </c>
+      <c r="O55">
+        <v>536.91099999999994</v>
+      </c>
+      <c r="P55">
+        <v>320.47699999999998</v>
+      </c>
+      <c r="Q55">
+        <v>86.632999999999996</v>
+      </c>
+      <c r="R55">
+        <v>41759</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>939.76099999999997</v>
+      </c>
+      <c r="U55">
+        <v>132.83199999999999</v>
+      </c>
+      <c r="V55">
+        <v>131.84299999999999</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-34.606000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>40.877000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>51.042999999999999</v>
+      </c>
+      <c r="D56">
+        <v>287.45</v>
+      </c>
+      <c r="E56">
+        <v>68.585999999999999</v>
+      </c>
+      <c r="F56">
+        <v>142.61099999999999</v>
+      </c>
+      <c r="G56">
+        <v>412.291</v>
+      </c>
+      <c r="H56">
+        <v>1506.8040000000001</v>
+      </c>
+      <c r="I56">
+        <v>62.213000000000001</v>
+      </c>
+      <c r="J56">
+        <v>224.92699999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>244.28399999999999</v>
+      </c>
+      <c r="O56">
+        <v>503.30500000000001</v>
+      </c>
+      <c r="P56">
+        <v>304.601</v>
+      </c>
+      <c r="Q56">
+        <v>25.835999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41851</v>
+      </c>
+      <c r="S56">
+        <v>4179</v>
+      </c>
+      <c r="T56">
+        <v>1003.499</v>
+      </c>
+      <c r="U56">
+        <v>158.66800000000001</v>
+      </c>
+      <c r="V56">
+        <v>54.96</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-12.215999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>51.042999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>52.615000000000002</v>
+      </c>
+      <c r="D57">
+        <v>290.38600000000002</v>
+      </c>
+      <c r="E57">
+        <v>204.81</v>
+      </c>
+      <c r="F57">
+        <v>122.30800000000001</v>
+      </c>
+      <c r="G57">
+        <v>457.76600000000002</v>
+      </c>
+      <c r="H57">
+        <v>1536.586</v>
+      </c>
+      <c r="I57">
+        <v>153.79900000000001</v>
+      </c>
+      <c r="J57">
+        <v>205.36799999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-18.75</v>
+      </c>
+      <c r="N57">
+        <v>259.69099999999997</v>
+      </c>
+      <c r="O57">
+        <v>499.15499999999997</v>
+      </c>
+      <c r="P57">
+        <v>281.53899999999999</v>
+      </c>
+      <c r="Q57">
+        <v>39.816000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1037.431</v>
+      </c>
+      <c r="U57">
+        <v>198.48400000000001</v>
+      </c>
+      <c r="V57">
+        <v>83.366</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-17.579000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>52.615000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>52.192999999999998</v>
+      </c>
+      <c r="D58">
+        <v>276.25799999999998</v>
+      </c>
+      <c r="E58">
+        <v>235.477</v>
+      </c>
+      <c r="F58">
+        <v>114.867</v>
+      </c>
+      <c r="G58">
+        <v>888.42499999999995</v>
+      </c>
+      <c r="H58">
+        <v>1952.0709999999999</v>
+      </c>
+      <c r="I58">
+        <v>148.18</v>
+      </c>
+      <c r="J58">
+        <v>609.33600000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>234.72399999999999</v>
+      </c>
+      <c r="O58">
+        <v>878.83399999999995</v>
+      </c>
+      <c r="P58">
+        <v>685.50699999999995</v>
+      </c>
+      <c r="Q58">
+        <v>391.88200000000001</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1073.2370000000001</v>
+      </c>
+      <c r="U58">
+        <v>590.36599999999999</v>
+      </c>
+      <c r="V58">
+        <v>5.5170000000000003</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>406.274</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>52.192999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>57.563000000000002</v>
+      </c>
+      <c r="D59">
+        <v>297.142</v>
+      </c>
+      <c r="E59">
+        <v>217.00299999999999</v>
+      </c>
+      <c r="F59">
+        <v>127.417</v>
+      </c>
+      <c r="G59">
+        <v>954.45899999999995</v>
+      </c>
+      <c r="H59">
+        <v>2002.9770000000001</v>
+      </c>
+      <c r="I59">
+        <v>154.255</v>
+      </c>
+      <c r="J59">
+        <v>600.851</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>229.44800000000001</v>
+      </c>
+      <c r="O59">
+        <v>867.00900000000001</v>
+      </c>
+      <c r="P59">
+        <v>665.77200000000005</v>
+      </c>
+      <c r="Q59">
+        <v>88.376000000000005</v>
+      </c>
+      <c r="R59">
+        <v>42124</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1135.9680000000001</v>
+      </c>
+      <c r="U59">
+        <v>678.74199999999996</v>
+      </c>
+      <c r="V59">
+        <v>114.486</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-17.552</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>57.563000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>57.411999999999999</v>
+      </c>
+      <c r="D60">
+        <v>282.29300000000001</v>
+      </c>
+      <c r="E60">
+        <v>70.784999999999997</v>
+      </c>
+      <c r="F60">
+        <v>144.084</v>
+      </c>
+      <c r="G60">
+        <v>734.58199999999999</v>
+      </c>
+      <c r="H60">
+        <v>1798.66</v>
+      </c>
+      <c r="I60">
+        <v>57.517000000000003</v>
+      </c>
+      <c r="J60">
+        <v>591.24300000000005</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>213.126</v>
+      </c>
+      <c r="O60">
+        <v>834.19600000000003</v>
+      </c>
+      <c r="P60">
+        <v>644.91399999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-222.73</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>4267</v>
+      </c>
+      <c r="T60">
+        <v>964.46400000000006</v>
+      </c>
+      <c r="U60">
+        <v>456.012</v>
+      </c>
+      <c r="V60">
+        <v>61.707000000000001</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-250.78100000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-4.5</v>
+      </c>
+      <c r="AA60">
+        <v>57.411999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>52.61</v>
+      </c>
+      <c r="D61">
+        <v>288.83800000000002</v>
+      </c>
+      <c r="E61">
+        <v>231.40299999999999</v>
+      </c>
+      <c r="F61">
+        <v>120.861</v>
+      </c>
+      <c r="G61">
+        <v>785.65599999999995</v>
+      </c>
+      <c r="H61">
+        <v>1855.7639999999999</v>
+      </c>
+      <c r="I61">
+        <v>147.34200000000001</v>
+      </c>
+      <c r="J61">
+        <v>584.50199999999995</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-18.75</v>
+      </c>
+      <c r="N61">
+        <v>223.92599999999999</v>
+      </c>
+      <c r="O61">
+        <v>839.21900000000005</v>
+      </c>
+      <c r="P61">
+        <v>626.923</v>
+      </c>
+      <c r="Q61">
+        <v>16.904</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1016.545</v>
+      </c>
+      <c r="U61">
+        <v>472.916</v>
+      </c>
+      <c r="V61">
+        <v>76.790999999999997</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-18.382000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-21.119</v>
+      </c>
+      <c r="AA61">
+        <v>52.61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>59.003999999999998</v>
+      </c>
+      <c r="D62">
+        <v>299.70600000000002</v>
+      </c>
+      <c r="E62">
+        <v>281.22699999999998</v>
+      </c>
+      <c r="F62">
+        <v>124.614</v>
+      </c>
+      <c r="G62">
+        <v>506.858</v>
+      </c>
+      <c r="H62">
+        <v>1604.364</v>
+      </c>
+      <c r="I62">
+        <v>147.839</v>
+      </c>
+      <c r="J62">
+        <v>576.50099999999998</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>265.11700000000002</v>
+      </c>
+      <c r="O62">
+        <v>872.96400000000006</v>
+      </c>
+      <c r="P62">
+        <v>675.67200000000003</v>
+      </c>
+      <c r="Q62">
+        <v>-331.5</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>731.4</v>
+      </c>
+      <c r="U62">
+        <v>141.416</v>
+      </c>
+      <c r="V62">
+        <v>6.53</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-273.53399999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>59.003999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>74.623999999999995</v>
+      </c>
+      <c r="D63">
+        <v>347.24599999999998</v>
+      </c>
+      <c r="E63">
+        <v>263.29199999999997</v>
+      </c>
+      <c r="F63">
+        <v>157.64699999999999</v>
+      </c>
+      <c r="G63">
+        <v>464.505</v>
+      </c>
+      <c r="H63">
+        <v>1624.135</v>
+      </c>
+      <c r="I63">
+        <v>150.298</v>
+      </c>
+      <c r="J63">
+        <v>670.50699999999995</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>203.58099999999999</v>
+      </c>
+      <c r="O63">
+        <v>907.60799999999995</v>
+      </c>
+      <c r="P63">
+        <v>700.87599999999998</v>
+      </c>
+      <c r="Q63">
+        <v>-3.7629999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>716.52700000000004</v>
+      </c>
+      <c r="U63">
+        <v>137.65299999999999</v>
+      </c>
+      <c r="V63">
+        <v>125.02500000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-88.507000000000005</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>21.498000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>74.623999999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>84.122</v>
+      </c>
+      <c r="D64">
+        <v>332.65899999999999</v>
+      </c>
+      <c r="E64">
+        <v>82.334999999999994</v>
+      </c>
+      <c r="F64">
+        <v>166.16399999999999</v>
+      </c>
+      <c r="G64">
+        <v>499.30599999999998</v>
+      </c>
+      <c r="H64">
+        <v>1649.82</v>
+      </c>
+      <c r="I64">
+        <v>76.953000000000003</v>
+      </c>
+      <c r="J64">
+        <v>564.34100000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>278.78300000000002</v>
+      </c>
+      <c r="O64">
+        <v>875.36400000000003</v>
+      </c>
+      <c r="P64">
+        <v>640.49199999999996</v>
+      </c>
+      <c r="Q64">
+        <v>18.196000000000002</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>4844</v>
+      </c>
+      <c r="T64">
+        <v>774.45600000000002</v>
+      </c>
+      <c r="U64">
+        <v>155.84899999999999</v>
+      </c>
+      <c r="V64">
+        <v>124.152</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-68.072999999999993</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>84.122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>167.28</v>
+      </c>
+      <c r="D65">
+        <v>345.99099999999999</v>
+      </c>
+      <c r="E65">
+        <v>294.358</v>
+      </c>
+      <c r="F65">
+        <v>145.29300000000001</v>
+      </c>
+      <c r="G65">
+        <v>630.71100000000001</v>
+      </c>
+      <c r="H65">
+        <v>1770.396</v>
+      </c>
+      <c r="I65">
+        <v>175.96899999999999</v>
+      </c>
+      <c r="J65">
+        <v>573.03</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>357.678</v>
+      </c>
+      <c r="O65">
+        <v>962.98900000000003</v>
+      </c>
+      <c r="P65">
+        <v>744.18100000000004</v>
+      </c>
+      <c r="Q65">
+        <v>12.571999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42674</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>807.40700000000004</v>
+      </c>
+      <c r="U65">
+        <v>168.42099999999999</v>
+      </c>
+      <c r="V65">
+        <v>74.293000000000006</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-16.738</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-1.05</v>
+      </c>
+      <c r="AA65">
+        <v>167.28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>66.066000000000003</v>
+      </c>
+      <c r="D66">
+        <v>349.53199999999998</v>
+      </c>
+      <c r="E66">
+        <v>340.43799999999999</v>
+      </c>
+      <c r="F66">
+        <v>146.76499999999999</v>
+      </c>
+      <c r="G66">
+        <v>659.25199999999995</v>
+      </c>
+      <c r="H66">
+        <v>1841.241</v>
+      </c>
+      <c r="I66">
+        <v>184.96799999999999</v>
+      </c>
+      <c r="J66">
+        <v>565.92600000000004</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>345.947</v>
+      </c>
+      <c r="O66">
+        <v>945.53800000000001</v>
+      </c>
+      <c r="P66">
+        <v>712.077</v>
+      </c>
+      <c r="Q66">
+        <v>6.5309999999999997</v>
+      </c>
+      <c r="R66">
+        <v>42766</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>895.70299999999997</v>
+      </c>
+      <c r="U66">
+        <v>174.952</v>
+      </c>
+      <c r="V66">
+        <v>81.234999999999999</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-23.611000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>66.066000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>90.546000000000006</v>
+      </c>
+      <c r="D67">
+        <v>373.86200000000002</v>
+      </c>
+      <c r="E67">
+        <v>302.07100000000003</v>
+      </c>
+      <c r="F67">
+        <v>172.505</v>
+      </c>
+      <c r="G67">
+        <v>593.60900000000004</v>
+      </c>
+      <c r="H67">
+        <v>1811.6859999999999</v>
+      </c>
+      <c r="I67">
+        <v>192.76900000000001</v>
+      </c>
+      <c r="J67">
+        <v>550.755</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>221.488</v>
+      </c>
+      <c r="O67">
+        <v>805.35699999999997</v>
+      </c>
+      <c r="P67">
+        <v>566.90599999999995</v>
+      </c>
+      <c r="Q67">
+        <v>14.669</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1006.329</v>
+      </c>
+      <c r="U67">
+        <v>189.62100000000001</v>
+      </c>
+      <c r="V67">
+        <v>192.29900000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-135.21</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-2.516</v>
+      </c>
+      <c r="AA67">
+        <v>90.546000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>70.334999999999994</v>
+      </c>
+      <c r="D68">
+        <v>378.596</v>
+      </c>
+      <c r="E68">
+        <v>105.878</v>
+      </c>
+      <c r="F68">
+        <v>197.16499999999999</v>
+      </c>
+      <c r="G68">
+        <v>587.26099999999997</v>
+      </c>
+      <c r="H68">
+        <v>1982.501</v>
+      </c>
+      <c r="I68">
+        <v>71.16</v>
+      </c>
+      <c r="J68">
+        <v>550.88300000000004</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>302.15300000000002</v>
+      </c>
+      <c r="O68">
+        <v>883.90099999999995</v>
+      </c>
+      <c r="P68">
+        <v>633.03800000000001</v>
+      </c>
+      <c r="Q68">
+        <v>20.478999999999999</v>
+      </c>
+      <c r="R68">
+        <v>42947</v>
+      </c>
+      <c r="S68">
+        <v>5323</v>
+      </c>
+      <c r="T68">
+        <v>1098.5999999999999</v>
+      </c>
+      <c r="U68">
+        <v>210.1</v>
+      </c>
+      <c r="V68">
+        <v>144.23099999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>68.584000000000003</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>70.334999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>77.515000000000001</v>
+      </c>
+      <c r="D69">
+        <v>419.16800000000001</v>
+      </c>
+      <c r="E69">
+        <v>366.64100000000002</v>
+      </c>
+      <c r="F69">
+        <v>199.06399999999999</v>
+      </c>
+      <c r="G69">
+        <v>654.37099999999998</v>
+      </c>
+      <c r="H69">
+        <v>2062.67</v>
+      </c>
+      <c r="I69">
+        <v>222.4</v>
+      </c>
+      <c r="J69">
+        <v>550.70399999999995</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-49</v>
+      </c>
+      <c r="N69">
+        <v>289.16899999999998</v>
+      </c>
+      <c r="O69">
+        <v>873.76099999999997</v>
+      </c>
+      <c r="P69">
+        <v>583.85400000000004</v>
+      </c>
+      <c r="Q69">
+        <v>14.146000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43039</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1188.9090000000001</v>
+      </c>
+      <c r="U69">
+        <v>224.24600000000001</v>
+      </c>
+      <c r="V69">
+        <v>93.36</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-39.75</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>77.515000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>103.256</v>
+      </c>
+      <c r="D70">
+        <v>459.10599999999999</v>
+      </c>
+      <c r="E70">
+        <v>398.97199999999998</v>
+      </c>
+      <c r="F70">
+        <v>218.209</v>
+      </c>
+      <c r="G70">
+        <v>666.476</v>
+      </c>
+      <c r="H70">
+        <v>2143.5410000000002</v>
+      </c>
+      <c r="I70">
+        <v>242.59399999999999</v>
+      </c>
+      <c r="J70">
+        <v>400.64600000000002</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>375.048</v>
+      </c>
+      <c r="O70">
+        <v>811.75</v>
+      </c>
+      <c r="P70">
+        <v>512.49699999999996</v>
+      </c>
+      <c r="Q70">
+        <v>-28.946000000000002</v>
+      </c>
+      <c r="R70">
+        <v>43131</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1331.7909999999999</v>
+      </c>
+      <c r="U70">
+        <v>195.3</v>
+      </c>
+      <c r="V70">
+        <v>93.033000000000001</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-61.281999999999996</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>103.256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>127.348</v>
+      </c>
+      <c r="D71">
+        <v>478.19799999999998</v>
+      </c>
+      <c r="E71">
+        <v>356.125</v>
+      </c>
+      <c r="F71">
+        <v>219.06800000000001</v>
+      </c>
+      <c r="G71">
+        <v>630.90200000000004</v>
+      </c>
+      <c r="H71">
+        <v>2165.1930000000002</v>
+      </c>
+      <c r="I71">
+        <v>245.47300000000001</v>
+      </c>
+      <c r="J71">
+        <v>398.91399999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>270.57799999999997</v>
+      </c>
+      <c r="O71">
+        <v>704.38099999999997</v>
+      </c>
+      <c r="P71">
+        <v>400.065</v>
+      </c>
+      <c r="Q71">
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="R71">
+        <v>43220</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1460.8119999999999</v>
+      </c>
+      <c r="U71">
+        <v>204.27500000000001</v>
+      </c>
+      <c r="V71">
+        <v>190.804</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-103.48699999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>127.348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>109.748</v>
+      </c>
+      <c r="D72">
+        <v>449.22300000000001</v>
+      </c>
+      <c r="E72">
+        <v>119.81100000000001</v>
+      </c>
+      <c r="F72">
+        <v>236.82499999999999</v>
+      </c>
+      <c r="G72">
+        <v>709.11599999999999</v>
+      </c>
+      <c r="H72">
+        <v>2307.6979999999999</v>
+      </c>
+      <c r="I72">
+        <v>133.71700000000001</v>
+      </c>
+      <c r="J72">
+        <v>398.74700000000001</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>277.25599999999997</v>
+      </c>
+      <c r="O72">
+        <v>726.59900000000005</v>
+      </c>
+      <c r="P72">
+        <v>399.89800000000002</v>
+      </c>
+      <c r="Q72">
+        <v>70.245000000000005</v>
+      </c>
+      <c r="R72">
+        <v>43312</v>
+      </c>
+      <c r="S72">
+        <v>6026</v>
+      </c>
+      <c r="T72">
+        <v>1581.0989999999999</v>
+      </c>
+      <c r="U72">
+        <v>274.52</v>
+      </c>
+      <c r="V72">
+        <v>157.87200000000001</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>22.481000000000002</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>109.748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>114.083</v>
+      </c>
+      <c r="D73">
+        <v>461.36799999999999</v>
+      </c>
+      <c r="E73">
+        <v>73.674999999999997</v>
+      </c>
+      <c r="F73">
+        <v>195.91800000000001</v>
+      </c>
+      <c r="G73">
+        <v>763.22199999999998</v>
+      </c>
+      <c r="H73">
+        <v>2381.788</v>
+      </c>
+      <c r="I73">
+        <v>235.982</v>
+      </c>
+      <c r="J73">
+        <v>398.642</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>254.80799999999999</v>
+      </c>
+      <c r="O73">
+        <v>710.02800000000002</v>
+      </c>
+      <c r="P73">
+        <v>399.64100000000002</v>
+      </c>
+      <c r="Q73">
+        <v>45.789000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43404</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1671.76</v>
+      </c>
+      <c r="U73">
+        <v>320.30900000000003</v>
+      </c>
+      <c r="V73">
+        <v>107.68300000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>114.083</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>131.37299999999999</v>
+      </c>
+      <c r="D74">
+        <v>484.89800000000002</v>
+      </c>
+      <c r="E74">
+        <v>78.75</v>
+      </c>
+      <c r="F74">
+        <v>208.226</v>
+      </c>
+      <c r="G74">
+        <v>628.46600000000001</v>
+      </c>
+      <c r="H74">
+        <v>2296.9050000000002</v>
+      </c>
+      <c r="I74">
+        <v>266.12599999999998</v>
+      </c>
+      <c r="J74">
+        <v>398.74</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>372.03300000000002</v>
+      </c>
+      <c r="O74">
+        <v>836.952</v>
+      </c>
+      <c r="P74">
+        <v>492.86200000000002</v>
+      </c>
+      <c r="Q74">
+        <v>-212.13499999999999</v>
+      </c>
+      <c r="R74">
+        <v>43496</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1459.953</v>
+      </c>
+      <c r="U74">
+        <v>108.17400000000001</v>
+      </c>
+      <c r="V74">
+        <v>107.521</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-264.23</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>131.37299999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>192.74100000000001</v>
+      </c>
+      <c r="D75">
+        <v>553.11599999999999</v>
+      </c>
+      <c r="E75">
+        <v>91.391999999999996</v>
+      </c>
+      <c r="F75">
+        <v>251.57900000000001</v>
+      </c>
+      <c r="G75">
+        <v>613.58500000000004</v>
+      </c>
+      <c r="H75">
+        <v>2391.7629999999999</v>
+      </c>
+      <c r="I75">
+        <v>279.779</v>
+      </c>
+      <c r="J75">
+        <v>398.83499999999998</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>296.90600000000001</v>
+      </c>
+      <c r="O75">
+        <v>772.91099999999994</v>
+      </c>
+      <c r="P75">
+        <v>406.39100000000002</v>
+      </c>
+      <c r="Q75">
+        <v>-5.3479999999999999</v>
+      </c>
+      <c r="R75">
+        <v>43585</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1618.8520000000001</v>
+      </c>
+      <c r="U75">
+        <v>102.82599999999999</v>
+      </c>
+      <c r="V75">
+        <v>238.292</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-119.82599999999999</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>192.74100000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>153.49600000000001</v>
+      </c>
+      <c r="D76">
+        <v>542.57500000000005</v>
+      </c>
+      <c r="E76">
+        <v>84.331999999999994</v>
+      </c>
+      <c r="F76">
+        <v>242.619</v>
+      </c>
+      <c r="G76">
+        <v>687.16700000000003</v>
+      </c>
+      <c r="H76">
+        <v>2547.6170000000002</v>
+      </c>
+      <c r="I76">
+        <v>113.947</v>
+      </c>
+      <c r="J76">
+        <v>400.09100000000001</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>282.00400000000002</v>
+      </c>
+      <c r="O76">
+        <v>769.23599999999999</v>
+      </c>
+      <c r="P76">
+        <v>401.22899999999998</v>
+      </c>
+      <c r="Q76">
+        <v>83.492999999999995</v>
+      </c>
+      <c r="R76">
+        <v>43677</v>
+      </c>
+      <c r="S76">
+        <v>7327</v>
+      </c>
+      <c r="T76">
+        <v>1778.3810000000001</v>
+      </c>
+      <c r="U76">
+        <v>186.31899999999999</v>
+      </c>
+      <c r="V76">
+        <v>193.15</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>12.525</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>153.49600000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>218.18</v>
+      </c>
+      <c r="D77">
+        <v>554.42399999999998</v>
+      </c>
+      <c r="E77">
+        <v>82.082999999999998</v>
+      </c>
+      <c r="F77">
+        <v>264.98399999999998</v>
+      </c>
+      <c r="G77">
+        <v>744.07600000000002</v>
+      </c>
+      <c r="H77">
+        <v>2855.9389999999999</v>
+      </c>
+      <c r="I77">
+        <v>289.24700000000001</v>
+      </c>
+      <c r="J77">
+        <v>399.00099999999998</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>323.31799999999998</v>
+      </c>
+      <c r="O77">
+        <v>929.34</v>
+      </c>
+      <c r="P77">
+        <v>540.88699999999994</v>
+      </c>
+      <c r="Q77">
+        <v>-5.2169999999999996</v>
+      </c>
+      <c r="R77">
+        <v>43769</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1926.5989999999999</v>
+      </c>
+      <c r="U77">
+        <v>181.102</v>
+      </c>
+      <c r="V77">
+        <v>212.458</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-88.733999999999995</v>
+      </c>
+      <c r="Y77">
+        <v>114.241</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>218.18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>168.70699999999999</v>
+      </c>
+      <c r="D78">
+        <v>575.14</v>
+      </c>
+      <c r="E78">
+        <v>92.212999999999994</v>
+      </c>
+      <c r="F78">
+        <v>269.56700000000001</v>
+      </c>
+      <c r="G78">
+        <v>731.96299999999997</v>
+      </c>
+      <c r="H78">
+        <v>3048.605</v>
+      </c>
+      <c r="I78">
+        <v>296.97699999999998</v>
+      </c>
+      <c r="J78">
+        <v>399.04599999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>342.83699999999999</v>
+      </c>
+      <c r="O78">
+        <v>923.87599999999998</v>
+      </c>
+      <c r="P78">
+        <v>519.28099999999995</v>
+      </c>
+      <c r="Q78">
+        <v>-87.590999999999994</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>2124.7289999999998</v>
+      </c>
+      <c r="U78">
+        <v>93.510999999999996</v>
+      </c>
+      <c r="V78">
+        <v>144.46199999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>37.460999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>82.706000000000003</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>168.70699999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>147.48699999999999</v>
+      </c>
+      <c r="D79">
+        <v>550.36</v>
+      </c>
+      <c r="E79">
+        <v>73.057000000000002</v>
+      </c>
+      <c r="F79">
+        <v>242.613</v>
+      </c>
+      <c r="G79">
+        <v>794.15200000000004</v>
+      </c>
+      <c r="H79">
+        <v>3161.5830000000001</v>
+      </c>
+      <c r="I79">
+        <v>250.84100000000001</v>
+      </c>
+      <c r="J79">
+        <v>399.15699999999998</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>286.56799999999998</v>
+      </c>
+      <c r="O79">
+        <v>880.572</v>
+      </c>
+      <c r="P79">
+        <v>516.28899999999999</v>
+      </c>
+      <c r="Q79">
+        <v>212.876</v>
+      </c>
+      <c r="R79">
+        <v>43951</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2281.011</v>
+      </c>
+      <c r="U79">
+        <v>306.387</v>
+      </c>
+      <c r="V79">
+        <v>294.048</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>8.6929999999999996</v>
+      </c>
+      <c r="Y79">
+        <v>90.194000000000003</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>147.48699999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>165.53299999999999</v>
+      </c>
+      <c r="D80">
+        <v>525.65899999999999</v>
+      </c>
+      <c r="E80">
+        <v>87.891000000000005</v>
+      </c>
+      <c r="F80">
+        <v>250.43100000000001</v>
+      </c>
+      <c r="G80">
+        <v>963.75900000000001</v>
+      </c>
+      <c r="H80">
+        <v>3455.261</v>
+      </c>
+      <c r="I80">
+        <v>132.91900000000001</v>
+      </c>
+      <c r="J80">
+        <v>396.47</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>356.04399999999998</v>
+      </c>
+      <c r="O80">
+        <v>965.745</v>
+      </c>
+      <c r="P80">
+        <v>518.19200000000001</v>
+      </c>
+      <c r="Q80">
+        <v>171.33099999999999</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>7600</v>
+      </c>
+      <c r="T80">
+        <v>2489.5160000000001</v>
+      </c>
+      <c r="U80">
+        <v>477.71800000000002</v>
+      </c>
+      <c r="V80">
+        <v>266.91699999999997</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>15.166</v>
+      </c>
+      <c r="Y80">
+        <v>96.15</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>165.53299999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>200.285</v>
+      </c>
+      <c r="D81">
+        <v>592.94000000000005</v>
+      </c>
+      <c r="E81">
+        <v>91.070999999999998</v>
+      </c>
+      <c r="F81">
+        <v>305.81</v>
+      </c>
+      <c r="G81">
+        <v>1138.1759999999999</v>
+      </c>
+      <c r="H81">
+        <v>3741.1880000000001</v>
+      </c>
+      <c r="I81">
+        <v>359.81599999999997</v>
+      </c>
+      <c r="J81">
+        <v>411.84500000000003</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-0.32700000000000001</v>
+      </c>
+      <c r="N81">
+        <v>407.536</v>
+      </c>
+      <c r="O81">
+        <v>1030.355</v>
+      </c>
+      <c r="P81">
+        <v>525.93899999999996</v>
+      </c>
+      <c r="Q81">
+        <v>128.01400000000001</v>
+      </c>
+      <c r="R81">
+        <v>44135</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2710.8330000000001</v>
+      </c>
+      <c r="U81">
+        <v>605.73199999999997</v>
+      </c>
+      <c r="V81">
+        <v>258.53300000000002</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>19.198</v>
+      </c>
+      <c r="Y81">
+        <v>88.49</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>200.285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>193.44</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>617.03099999999995</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>91.457999999999998</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>315.94</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1225.4670000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3934.4380000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>324.108</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>402.70299999999997</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>371.01499999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>991.846</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>511.81400000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>10.670999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>2942.5920000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>616.40300000000002</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>134.50800000000001</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>7.3849999999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>85.307000000000002</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>193.44</v>
       </c>
     </row>
